--- a/outputs/p__Firmicutes_train.xlsx
+++ b/outputs/p__Firmicutes_train.xlsx
@@ -7,7 +7,8 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="c__Alicyclobacillia-b" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="c__Bacilli-b" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="c__Alicyclobacillia-b" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,12 +16,1575 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="530">
   <si>
     <t>c__Alicyclobacillia-c__Bacilli</t>
   </si>
   <si>
     <t>prediction</t>
+  </si>
+  <si>
+    <t>RS_GCF_003665065.1_0</t>
+  </si>
+  <si>
+    <t>c__Bacilli</t>
+  </si>
+  <si>
+    <t>RS_GCF_000744375.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003952225.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_900544435.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000189395.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_002345705.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003987645.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_002441525.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_900314905.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900107975.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000686665.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003515705.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002027705.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001308205.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000836725.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002153425.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_006861825.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900113325.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900660595.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002871465.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001636335.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_900317295.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003943415.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900113675.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000423725.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000425205.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003942675.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000223255.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000297375.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_003555335.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000279535.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000518865.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001311905.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_901542335.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003946045.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000967195.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900116255.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002706795.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900110815.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900129085.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002019765.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_004556255.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_002315205.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002019705.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000612505.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_004307995.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003864415.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000714435.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000702585.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900103825.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_003446295.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000751775.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900111355.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900176885.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002571225.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001438805.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001648555.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002860865.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900116235.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000829035.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001695645.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000154805.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002237755.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_005405305.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000755705.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000014425.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000166715.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002901705.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_006094395.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001436215.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_004000865.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002559145.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_006742205.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900156125.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000154285.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003994465.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001278705.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000829515.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_000434495.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900290205.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003049575.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000438455.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_002358955.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_900551925.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000011225.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900660485.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900107505.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000411255.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900636575.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002797315.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001884045.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001906925.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003957375.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000423265.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000758545.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002109385.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900103655.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001434705.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002743055.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900637845.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_900547815.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_004135365.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900454495.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_005405365.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001420595.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_900540605.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003946655.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001579025.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900478025.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_004342885.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_002841605.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900166655.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900142675.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002355375.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000422445.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001073085.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002019695.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001700315.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002355215.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000525855.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_003512585.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900475595.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_004363045.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003386205.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003480255.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002902565.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003710905.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900099655.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000027145.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003719725.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001423965.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000448565.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001675045.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003336365.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000344175.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_001512995.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_900321795.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001592845.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003426025.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_002347755.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003480165.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002902525.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003595525.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002902145.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001636405.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000382805.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003546865.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_900554615.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003946695.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001543345.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001866655.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001810785.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900112045.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003711845.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000183365.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_004366035.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_002902575.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002119805.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000194945.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000195575.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001074805.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000009845.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003054245.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000411295.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003966145.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000821085.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001591825.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002217945.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000173795.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002798305.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_002321395.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002860285.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900129865.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000615445.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002797375.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003864335.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000725285.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001640785.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001659985.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003943935.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001050115.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000187465.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_003551455.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900101065.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001310895.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_001058355.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_004563275.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000763315.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001956095.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001027105.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003946625.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001592005.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003710915.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000739915.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001437075.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900101525.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_003245625.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003515775.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000455265.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000496855.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000327395.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_000438415.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003713065.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_004570605.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000380045.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002250055.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001730235.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000701865.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001629735.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900660645.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000517385.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001553035.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_002118325.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900111295.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000237995.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003943815.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_002450035.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_004010835.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003641145.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000746925.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003628505.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002567495.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001544375.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000413475.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_004195325.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_004570525.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001543205.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001311075.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_900313725.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000966195.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000620845.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_003666485.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000525995.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900660675.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000277645.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900101225.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002407025.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001439635.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002243625.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002804205.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001435835.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_007117885.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_002084435.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001956185.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000722815.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003987655.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000374825.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002953735.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000712595.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001274935.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000439435.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000759675.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_002402585.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900103605.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002964575.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_005405145.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_005405005.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003429085.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000245335.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001244735.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000011245.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001436395.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_900321485.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_007120055.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_004123195.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001591465.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003946245.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003458715.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_007115095.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001368795.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000496835.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003931855.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001636345.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001721685.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_000935965.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000426085.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_900543055.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001955655.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_004343035.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002993335.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003688615.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000222705.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000701725.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_900545015.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001447315.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000188295.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003259675.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900459405.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_006864135.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000829195.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900167405.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001305855.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900095775.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001543285.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001436605.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000785785.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000621085.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_007132465.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001435035.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900098925.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_004101845.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002093545.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000526235.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001434315.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000374325.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000178375.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001543175.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002240415.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_000432895.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002743375.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_002296455.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_002353275.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000576325.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001439625.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000731915.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900101165.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001586195.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001434695.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003987565.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001436695.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000235585.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002000985.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_004344915.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001465795.2_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000321185.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_004340465.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_002300045.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000338275.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900166635.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000935355.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000430625.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_900539865.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_007117835.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003668575.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003013395.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002946355.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002953655.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001224225.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001742425.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000518885.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_004116265.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_900540395.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003668635.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_002299475.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000513135.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_007131405.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001486585.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_002410615.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000007825.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_002243705.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000816085.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_004138285.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_002417825.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002982115.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_006170445.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000813425.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_003559235.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000687735.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_002397465.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001685395.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002930155.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000440555.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900107305.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002902345.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002884445.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_002438785.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002845985.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000429685.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002243345.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_007116205.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_002477825.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000507145.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900411395.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_000433315.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_900539265.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_004354505.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003852715.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001591485.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_001274925.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_005887555.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000620565.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000821325.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000960085.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_001916215.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000565215.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000423785.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002975175.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002355895.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000373785.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900095845.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_004283785.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_002359085.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001278755.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000377765.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_004771295.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000967915.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002266285.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000296835.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001721045.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002871555.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900110675.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000187935.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_005280205.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_003605085.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_006539985.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_006351725.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900604485.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003248275.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_003510215.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_004117055.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003628445.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_900551535.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001542915.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900169305.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003955665.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001436045.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000425825.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003667865.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000204355.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000406945.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000829905.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900117315.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001437125.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001592085.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002804025.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001375515.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001584325.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000286075.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001886855.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003217535.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003989135.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_900551285.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002858905.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001560895.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001884135.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_002551005.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002577405.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900109165.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_002385575.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900103485.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_001310675.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001399685.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900102965.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000430765.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002245695.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000008205.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000622165.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002005405.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_900550795.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000307875.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003316765.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000383235.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000496285.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_004793885.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001243895.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001708305.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_003568315.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000785105.2_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002901825.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900476085.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_000436255.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_001636495.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000257845.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900109325.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_900546245.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_002841515.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000701825.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000407545.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_005404815.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000525975.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000425905.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002804105.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000025845.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002096855.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003143955.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900110685.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002844535.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003550015.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900660495.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_007004635.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000159435.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001583695.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_002311155.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000702165.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003259935.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_900320455.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003287275.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000770635.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900100775.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900240265.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000385835.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_000433035.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900156885.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900100185.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_002363635.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001436025.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_900549285.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000585395.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001857945.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_007116245.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_003226325.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_005049045.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002096685.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900660605.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001500315.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000422465.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_900317015.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002441885.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002019605.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_004117835.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000876205.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000708755.2_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001865995.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001199495.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_002742685.1_0</t>
+  </si>
+  <si>
+    <t>GB_GCA_002385755.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000686605.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_900101985.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_001578865.1_0</t>
+  </si>
+  <si>
+    <t>RS_GCF_000374565.1_0</t>
   </si>
   <si>
     <t>RS_GCF_001516615.1_0</t>
@@ -390,6 +1954,5753 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:C521"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4.240329659863177</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>8.569750028602904</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3.40032005614433</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="n">
+        <v>10.22558261793732</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3.099754808008279</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4.856777272742392</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3.346959485670835</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="n">
+        <v>3.633414267641537</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6.616342186008629</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="n">
+        <v>3.744665020754011</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="n">
+        <v>8.603439718606376</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="n">
+        <v>4.120531919918229</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1.974695550635261</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="n">
+        <v>8.208291570729546</v>
+      </c>
+      <c r="C15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="n">
+        <v>7.357443408536751</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="n">
+        <v>5.382637625421792</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="n">
+        <v>3.031759001576908</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="n">
+        <v>3.060510612339022</v>
+      </c>
+      <c r="C19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="n">
+        <v>7.747732823000755</v>
+      </c>
+      <c r="C20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="n">
+        <v>4.03149553830625</v>
+      </c>
+      <c r="C21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="n">
+        <v>5.069195142158017</v>
+      </c>
+      <c r="C22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3.750123286604765</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1.545419874152986</v>
+      </c>
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="n">
+        <v>6.119095961841644</v>
+      </c>
+      <c r="C25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="n">
+        <v>3.592708293032628</v>
+      </c>
+      <c r="C26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="n">
+        <v>3.318032596046123</v>
+      </c>
+      <c r="C27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2.318991432945027</v>
+      </c>
+      <c r="C28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1.828392434733937</v>
+      </c>
+      <c r="C29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3.572826703090859</v>
+      </c>
+      <c r="C30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2.803004654727604</v>
+      </c>
+      <c r="C31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2.995649117045383</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="n">
+        <v>4.436556232347182</v>
+      </c>
+      <c r="C33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.9631769332218599</v>
+      </c>
+      <c r="C34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="n">
+        <v>3.98081232308269</v>
+      </c>
+      <c r="C35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2.376522784201107</v>
+      </c>
+      <c r="C36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="n">
+        <v>4.095681532246298</v>
+      </c>
+      <c r="C37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="n">
+        <v>3.856143165578723</v>
+      </c>
+      <c r="C38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="n">
+        <v>2.499284249427304</v>
+      </c>
+      <c r="C39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="n">
+        <v>4.330445946221924</v>
+      </c>
+      <c r="C40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="n">
+        <v>4.873138998685675</v>
+      </c>
+      <c r="C41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="n">
+        <v>4.555639926772629</v>
+      </c>
+      <c r="C42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="n">
+        <v>6.250954648277544</v>
+      </c>
+      <c r="C43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="n">
+        <v>8.749081112483111</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="n">
+        <v>4.472324497429222</v>
+      </c>
+      <c r="C45" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="n">
+        <v>4.128352520104433</v>
+      </c>
+      <c r="C46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="n">
+        <v>3.453152729216539</v>
+      </c>
+      <c r="C47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1.943223977700869</v>
+      </c>
+      <c r="C48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="n">
+        <v>3.576776968667954</v>
+      </c>
+      <c r="C49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="n">
+        <v>3.729694667102861</v>
+      </c>
+      <c r="C50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.9222990598761773</v>
+      </c>
+      <c r="C51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" t="n">
+        <v>6.083409472079462</v>
+      </c>
+      <c r="C52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="n">
+        <v>4.365683299225299</v>
+      </c>
+      <c r="C53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="n">
+        <v>5.332332662584828</v>
+      </c>
+      <c r="C54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" t="n">
+        <v>4.837197725207429</v>
+      </c>
+      <c r="C55" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" t="n">
+        <v>6.473227216190669</v>
+      </c>
+      <c r="C56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" t="n">
+        <v>5.38528334980615</v>
+      </c>
+      <c r="C57" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="n">
+        <v>4.791999097184016</v>
+      </c>
+      <c r="C58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" t="n">
+        <v>5.457580608386688</v>
+      </c>
+      <c r="C59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" t="n">
+        <v>2.913755644599809</v>
+      </c>
+      <c r="C60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" t="n">
+        <v>2.240034700990172</v>
+      </c>
+      <c r="C61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="n">
+        <v>2.7097317772046</v>
+      </c>
+      <c r="C62" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" t="n">
+        <v>11.07909859905278</v>
+      </c>
+      <c r="C63" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" t="n">
+        <v>2.660292586425335</v>
+      </c>
+      <c r="C64" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" t="n">
+        <v>5.599378593854383</v>
+      </c>
+      <c r="C65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" t="n">
+        <v>5.444525261916615</v>
+      </c>
+      <c r="C66" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" t="n">
+        <v>6.486426654745437</v>
+      </c>
+      <c r="C67" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" t="n">
+        <v>3.37721438020811</v>
+      </c>
+      <c r="C68" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" t="n">
+        <v>5.117014605593634</v>
+      </c>
+      <c r="C69" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" t="n">
+        <v>3.907869135506513</v>
+      </c>
+      <c r="C70" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" t="n">
+        <v>3.311845010102662</v>
+      </c>
+      <c r="C71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1.871603073476784</v>
+      </c>
+      <c r="C72" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" t="n">
+        <v>2.884612569733783</v>
+      </c>
+      <c r="C73" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" t="n">
+        <v>3.669651474757273</v>
+      </c>
+      <c r="C74" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" t="n">
+        <v>5.81850829552764</v>
+      </c>
+      <c r="C75" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" t="n">
+        <v>6.907904631177857</v>
+      </c>
+      <c r="C76" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" t="n">
+        <v>2.528584434261229</v>
+      </c>
+      <c r="C77" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" t="n">
+        <v>4.698150378765932</v>
+      </c>
+      <c r="C78" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" t="n">
+        <v>5.40552304099522</v>
+      </c>
+      <c r="C79" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" t="n">
+        <v>8.895974204399426</v>
+      </c>
+      <c r="C80" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" t="n">
+        <v>6.327486876509115</v>
+      </c>
+      <c r="C81" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" t="n">
+        <v>2.542289042650158</v>
+      </c>
+      <c r="C82" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" t="n">
+        <v>5.776406256588356</v>
+      </c>
+      <c r="C83" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" t="n">
+        <v>3.275533049865164</v>
+      </c>
+      <c r="C84" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" t="n">
+        <v>14.23872756225197</v>
+      </c>
+      <c r="C85" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" t="n">
+        <v>10.92034913255038</v>
+      </c>
+      <c r="C86" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" t="n">
+        <v>18.75583559523042</v>
+      </c>
+      <c r="C87" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1.198130291152374</v>
+      </c>
+      <c r="C88" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" t="n">
+        <v>3.438257904237786</v>
+      </c>
+      <c r="C89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" t="n">
+        <v>3.473348465096346</v>
+      </c>
+      <c r="C90" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" t="n">
+        <v>5.701285726743561</v>
+      </c>
+      <c r="C91" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" t="n">
+        <v>9.349107350049239</v>
+      </c>
+      <c r="C92" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" t="n">
+        <v>5.307458031443712</v>
+      </c>
+      <c r="C93" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" t="n">
+        <v>5.39473884446519</v>
+      </c>
+      <c r="C94" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" t="n">
+        <v>2.222280387075017</v>
+      </c>
+      <c r="C95" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" t="n">
+        <v>2.142962811321757</v>
+      </c>
+      <c r="C96" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" t="n">
+        <v>4.718940838149162</v>
+      </c>
+      <c r="C97" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" t="n">
+        <v>5.776119047716756</v>
+      </c>
+      <c r="C98" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" t="n">
+        <v>3.012784693138458</v>
+      </c>
+      <c r="C99" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1.590383595916959</v>
+      </c>
+      <c r="C100" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" t="n">
+        <v>2.273266546371314</v>
+      </c>
+      <c r="C101" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102" t="n">
+        <v>6.00988162444711</v>
+      </c>
+      <c r="C102" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103" t="n">
+        <v>7.031815606840238</v>
+      </c>
+      <c r="C103" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1.339998536728234</v>
+      </c>
+      <c r="C104" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105" t="n">
+        <v>5.756090130854244</v>
+      </c>
+      <c r="C105" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" t="n">
+        <v>3.986539599149947</v>
+      </c>
+      <c r="C106" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107" t="n">
+        <v>3.80459795217648</v>
+      </c>
+      <c r="C107" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108" t="n">
+        <v>4.825304243803439</v>
+      </c>
+      <c r="C108" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" t="n">
+        <v>2.619168934178669</v>
+      </c>
+      <c r="C109" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" t="n">
+        <v>9.835690001201682</v>
+      </c>
+      <c r="C110" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111" t="n">
+        <v>6.215807754430323</v>
+      </c>
+      <c r="C111" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112" t="n">
+        <v>2.769399592988896</v>
+      </c>
+      <c r="C112" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1.989364521976434</v>
+      </c>
+      <c r="C113" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114" t="n">
+        <v>2.904518461143775</v>
+      </c>
+      <c r="C114" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115" t="n">
+        <v>3.537746260688754</v>
+      </c>
+      <c r="C115" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116" t="n">
+        <v>2.19150477671001</v>
+      </c>
+      <c r="C116" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117" t="n">
+        <v>2.936384811850708</v>
+      </c>
+      <c r="C117" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" t="n">
+        <v>4.00098012823245</v>
+      </c>
+      <c r="C118" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119" t="n">
+        <v>5.498253371870919</v>
+      </c>
+      <c r="C119" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120" t="n">
+        <v>5.468543129860539</v>
+      </c>
+      <c r="C120" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121" t="n">
+        <v>3.106411785150572</v>
+      </c>
+      <c r="C121" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122" t="n">
+        <v>13.61838818812715</v>
+      </c>
+      <c r="C122" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B123" t="n">
+        <v>3.734333736986586</v>
+      </c>
+      <c r="C123" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B124" t="n">
+        <v>2.682854696111877</v>
+      </c>
+      <c r="C124" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B125" t="n">
+        <v>3.215312041106789</v>
+      </c>
+      <c r="C125" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B126" t="n">
+        <v>9.347066769361405</v>
+      </c>
+      <c r="C126" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127" t="n">
+        <v>5.537725721480152</v>
+      </c>
+      <c r="C127" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1.513095600008717</v>
+      </c>
+      <c r="C128" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B129" t="n">
+        <v>3.974334622772081</v>
+      </c>
+      <c r="C129" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B130" t="n">
+        <v>6.026945514530754</v>
+      </c>
+      <c r="C130" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131" t="n">
+        <v>3.054838109165753</v>
+      </c>
+      <c r="C131" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B132" t="n">
+        <v>2.314833869588246</v>
+      </c>
+      <c r="C132" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B133" t="n">
+        <v>2.850107350192276</v>
+      </c>
+      <c r="C133" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B134" t="n">
+        <v>2.77623649417346</v>
+      </c>
+      <c r="C134" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B135" t="n">
+        <v>2.767636202137048</v>
+      </c>
+      <c r="C135" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B136" t="n">
+        <v>3.071462206744979</v>
+      </c>
+      <c r="C136" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B137" t="n">
+        <v>4.979376745266542</v>
+      </c>
+      <c r="C137" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B138" t="n">
+        <v>9.664063005571087</v>
+      </c>
+      <c r="C138" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B139" t="n">
+        <v>5.00120566583876</v>
+      </c>
+      <c r="C139" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B140" t="n">
+        <v>5.643998255468446</v>
+      </c>
+      <c r="C140" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B141" t="n">
+        <v>4.956319750922073</v>
+      </c>
+      <c r="C141" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B142" t="n">
+        <v>5.157508324696212</v>
+      </c>
+      <c r="C142" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B143" t="n">
+        <v>6.32606808479619</v>
+      </c>
+      <c r="C143" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B144" t="n">
+        <v>3.640492439168292</v>
+      </c>
+      <c r="C144" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B145" t="n">
+        <v>3.983487588772792</v>
+      </c>
+      <c r="C145" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B146" t="n">
+        <v>3.545082695384504</v>
+      </c>
+      <c r="C146" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B147" t="n">
+        <v>2.726721542917286</v>
+      </c>
+      <c r="C147" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B148" t="n">
+        <v>2.169593744549796</v>
+      </c>
+      <c r="C148" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B149" t="n">
+        <v>15.91280851080865</v>
+      </c>
+      <c r="C149" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B150" t="n">
+        <v>3.49152204383501</v>
+      </c>
+      <c r="C150" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B151" t="n">
+        <v>4.398207125485504</v>
+      </c>
+      <c r="C151" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B152" t="n">
+        <v>3.57620620874738</v>
+      </c>
+      <c r="C152" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B153" t="n">
+        <v>3.750439394957647</v>
+      </c>
+      <c r="C153" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B154" t="n">
+        <v>5.142670951097458</v>
+      </c>
+      <c r="C154" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B155" t="n">
+        <v>4.613788930919171</v>
+      </c>
+      <c r="C155" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B156" t="n">
+        <v>18.6480953106989</v>
+      </c>
+      <c r="C156" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B157" t="n">
+        <v>3.347296751204316</v>
+      </c>
+      <c r="C157" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B158" t="n">
+        <v>4.660775934213275</v>
+      </c>
+      <c r="C158" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B159" t="n">
+        <v>5.135890769569905</v>
+      </c>
+      <c r="C159" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B160" t="n">
+        <v>3.013075269650517</v>
+      </c>
+      <c r="C160" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B161" t="n">
+        <v>7.426625457695945</v>
+      </c>
+      <c r="C161" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B162" t="n">
+        <v>2.246333881883318</v>
+      </c>
+      <c r="C162" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B163" t="n">
+        <v>11.61299812817902</v>
+      </c>
+      <c r="C163" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B164" t="n">
+        <v>2.550115572027789</v>
+      </c>
+      <c r="C164" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B165" t="n">
+        <v>3.265017406740878</v>
+      </c>
+      <c r="C165" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B166" t="n">
+        <v>3.060049544247939</v>
+      </c>
+      <c r="C166" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B167" t="n">
+        <v>3.915654690203883</v>
+      </c>
+      <c r="C167" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B168" t="n">
+        <v>5.069526385481057</v>
+      </c>
+      <c r="C168" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B169" t="n">
+        <v>3.826569965314849</v>
+      </c>
+      <c r="C169" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B170" t="n">
+        <v>8.081568942528703</v>
+      </c>
+      <c r="C170" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1.395719787180398</v>
+      </c>
+      <c r="C171" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B172" t="n">
+        <v>6.241741320602635</v>
+      </c>
+      <c r="C172" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B173" t="n">
+        <v>3.944174904206974</v>
+      </c>
+      <c r="C173" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B174" t="n">
+        <v>2.760367750073288</v>
+      </c>
+      <c r="C174" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B175" t="n">
+        <v>6.336709702670168</v>
+      </c>
+      <c r="C175" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B176" t="n">
+        <v>5.955777082376726</v>
+      </c>
+      <c r="C176" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B177" t="n">
+        <v>5.476220026389209</v>
+      </c>
+      <c r="C177" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B178" t="n">
+        <v>4.205927614909154</v>
+      </c>
+      <c r="C178" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1.087511891052879</v>
+      </c>
+      <c r="C179" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B180" t="n">
+        <v>4.352033707609107</v>
+      </c>
+      <c r="C180" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B181" t="n">
+        <v>2.675830741906676</v>
+      </c>
+      <c r="C181" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B182" t="n">
+        <v>6.838015622445729</v>
+      </c>
+      <c r="C182" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B183" t="n">
+        <v>4.210332807570128</v>
+      </c>
+      <c r="C183" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B184" t="n">
+        <v>4.149482517410877</v>
+      </c>
+      <c r="C184" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B185" t="n">
+        <v>4.081354027315669</v>
+      </c>
+      <c r="C185" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B186" t="n">
+        <v>3.362072302004429</v>
+      </c>
+      <c r="C186" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B187" t="n">
+        <v>4.019184331215979</v>
+      </c>
+      <c r="C187" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B188" t="n">
+        <v>12.94824498379651</v>
+      </c>
+      <c r="C188" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B189" t="n">
+        <v>3.14682464535815</v>
+      </c>
+      <c r="C189" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B190" t="n">
+        <v>2.552988205149788</v>
+      </c>
+      <c r="C190" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B191" t="n">
+        <v>4.848625400668518</v>
+      </c>
+      <c r="C191" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B192" t="n">
+        <v>4.228883327533453</v>
+      </c>
+      <c r="C192" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.365319826684952</v>
+      </c>
+      <c r="C193" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B194" t="n">
+        <v>2.209522995432402</v>
+      </c>
+      <c r="C194" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B195" t="n">
+        <v>2.682738611358095</v>
+      </c>
+      <c r="C195" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B196" t="n">
+        <v>3.194510077537193</v>
+      </c>
+      <c r="C196" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B197" t="n">
+        <v>4.299078866559773</v>
+      </c>
+      <c r="C197" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B198" t="n">
+        <v>3.606878513762856</v>
+      </c>
+      <c r="C198" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B199" t="n">
+        <v>2.885797972335766</v>
+      </c>
+      <c r="C199" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B200" t="n">
+        <v>3.877218838305422</v>
+      </c>
+      <c r="C200" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B201" t="n">
+        <v>2.748877460244826</v>
+      </c>
+      <c r="C201" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B202" t="n">
+        <v>18.37925344993498</v>
+      </c>
+      <c r="C202" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B203" t="n">
+        <v>12.28315884030792</v>
+      </c>
+      <c r="C203" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5.035497379677616</v>
+      </c>
+      <c r="C204" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B205" t="n">
+        <v>4.630796955682937</v>
+      </c>
+      <c r="C205" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B206" t="n">
+        <v>9.160495273893032</v>
+      </c>
+      <c r="C206" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B207" t="n">
+        <v>6.864126194840212</v>
+      </c>
+      <c r="C207" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B208" t="n">
+        <v>3.847730588210094</v>
+      </c>
+      <c r="C208" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B209" t="n">
+        <v>11.88292669438327</v>
+      </c>
+      <c r="C209" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B210" t="n">
+        <v>3.502418520078693</v>
+      </c>
+      <c r="C210" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B211" t="n">
+        <v>11.87004514290963</v>
+      </c>
+      <c r="C211" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B212" t="n">
+        <v>2.632900986661826</v>
+      </c>
+      <c r="C212" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B213" t="n">
+        <v>8.505493427592626</v>
+      </c>
+      <c r="C213" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B214" t="n">
+        <v>6.967498026701694</v>
+      </c>
+      <c r="C214" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B215" t="n">
+        <v>2.798369925189996</v>
+      </c>
+      <c r="C215" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B216" t="n">
+        <v>3.733625267156073</v>
+      </c>
+      <c r="C216" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B217" t="n">
+        <v>2.025358636717086</v>
+      </c>
+      <c r="C217" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B218" t="n">
+        <v>9.857251640695567</v>
+      </c>
+      <c r="C218" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5.85280779827661</v>
+      </c>
+      <c r="C219" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B220" t="n">
+        <v>2.826635878707526</v>
+      </c>
+      <c r="C220" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B221" t="n">
+        <v>6.604806248249345</v>
+      </c>
+      <c r="C221" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5.057962232755014</v>
+      </c>
+      <c r="C222" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5.629873019548397</v>
+      </c>
+      <c r="C223" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B224" t="n">
+        <v>3.977041599014455</v>
+      </c>
+      <c r="C224" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B225" t="n">
+        <v>3.309910696496273</v>
+      </c>
+      <c r="C225" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B226" t="n">
+        <v>4.112586984949615</v>
+      </c>
+      <c r="C226" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B227" t="n">
+        <v>2.243228287403717</v>
+      </c>
+      <c r="C227" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B228" t="n">
+        <v>4.058659464742155</v>
+      </c>
+      <c r="C228" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B229" t="n">
+        <v>2.255230786393336</v>
+      </c>
+      <c r="C229" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B230" t="n">
+        <v>15.23693914635674</v>
+      </c>
+      <c r="C230" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B231" t="n">
+        <v>4.654166561911253</v>
+      </c>
+      <c r="C231" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B232" t="n">
+        <v>1.411912379024119</v>
+      </c>
+      <c r="C232" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B233" t="n">
+        <v>2.267486547799773</v>
+      </c>
+      <c r="C233" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B234" t="n">
+        <v>2.286001222343956</v>
+      </c>
+      <c r="C234" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B235" t="n">
+        <v>8.616601293313524</v>
+      </c>
+      <c r="C235" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B236" t="n">
+        <v>5.297336951454144</v>
+      </c>
+      <c r="C236" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B237" t="n">
+        <v>1.719736512694594</v>
+      </c>
+      <c r="C237" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B238" t="n">
+        <v>2.470299945803987</v>
+      </c>
+      <c r="C238" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B239" t="n">
+        <v>3.55765321577498</v>
+      </c>
+      <c r="C239" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B240" t="n">
+        <v>5.496709261878014</v>
+      </c>
+      <c r="C240" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B241" t="n">
+        <v>5.133388186354397</v>
+      </c>
+      <c r="C241" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B242" t="n">
+        <v>2.034051969737773</v>
+      </c>
+      <c r="C242" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B243" t="n">
+        <v>2.910431959780807</v>
+      </c>
+      <c r="C243" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B244" t="n">
+        <v>8.570136008774735</v>
+      </c>
+      <c r="C244" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B245" t="n">
+        <v>3.1458819039043</v>
+      </c>
+      <c r="C245" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B246" t="n">
+        <v>4.959847739876838</v>
+      </c>
+      <c r="C246" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B247" t="n">
+        <v>2.964672253337806</v>
+      </c>
+      <c r="C247" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B248" t="n">
+        <v>2.015983464647106</v>
+      </c>
+      <c r="C248" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B249" t="n">
+        <v>3.459185282224771</v>
+      </c>
+      <c r="C249" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B250" t="n">
+        <v>8.370485036476024</v>
+      </c>
+      <c r="C250" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B251" t="n">
+        <v>4.796420207060205</v>
+      </c>
+      <c r="C251" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B252" t="n">
+        <v>15.73096057527339</v>
+      </c>
+      <c r="C252" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B253" t="n">
+        <v>3.38850981097643</v>
+      </c>
+      <c r="C253" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B254" t="n">
+        <v>3.459811195798502</v>
+      </c>
+      <c r="C254" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B255" t="n">
+        <v>4.656354634677494</v>
+      </c>
+      <c r="C255" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B256" t="n">
+        <v>1.983783593302301</v>
+      </c>
+      <c r="C256" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B257" t="n">
+        <v>2.480644302274714</v>
+      </c>
+      <c r="C257" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B258" t="n">
+        <v>3.468017873893213</v>
+      </c>
+      <c r="C258" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B259" t="n">
+        <v>3.525922695656733</v>
+      </c>
+      <c r="C259" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B260" t="n">
+        <v>4.391458351695671</v>
+      </c>
+      <c r="C260" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B261" t="n">
+        <v>7.587890604321355</v>
+      </c>
+      <c r="C261" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B262" t="n">
+        <v>4.549213612918583</v>
+      </c>
+      <c r="C262" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B263" t="n">
+        <v>2.906881433593767</v>
+      </c>
+      <c r="C263" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B264" t="n">
+        <v>5.121215282404733</v>
+      </c>
+      <c r="C264" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B265" t="n">
+        <v>3.980092216177717</v>
+      </c>
+      <c r="C265" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B266" t="n">
+        <v>1.973742961458724</v>
+      </c>
+      <c r="C266" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B267" t="n">
+        <v>3.538882048630935</v>
+      </c>
+      <c r="C267" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B268" t="n">
+        <v>1.636381378839188</v>
+      </c>
+      <c r="C268" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B269" t="n">
+        <v>6.091987335240002</v>
+      </c>
+      <c r="C269" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B270" t="n">
+        <v>1.47623251913232</v>
+      </c>
+      <c r="C270" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B271" t="n">
+        <v>2.549382632368228</v>
+      </c>
+      <c r="C271" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B272" t="n">
+        <v>4.318243188076528</v>
+      </c>
+      <c r="C272" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B273" t="n">
+        <v>1.785076651409458</v>
+      </c>
+      <c r="C273" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B274" t="n">
+        <v>3.381391547079574</v>
+      </c>
+      <c r="C274" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B275" t="n">
+        <v>3.556340019472009</v>
+      </c>
+      <c r="C275" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B276" t="n">
+        <v>3.38721090843617</v>
+      </c>
+      <c r="C276" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B277" t="n">
+        <v>3.921181190544314</v>
+      </c>
+      <c r="C277" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B278" t="n">
+        <v>12.57531852436045</v>
+      </c>
+      <c r="C278" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B279" t="n">
+        <v>2.496712842579552</v>
+      </c>
+      <c r="C279" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B280" t="n">
+        <v>10.40180615022175</v>
+      </c>
+      <c r="C280" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B281" t="n">
+        <v>6.038699467673724</v>
+      </c>
+      <c r="C281" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B282" t="n">
+        <v>6.378420466924804</v>
+      </c>
+      <c r="C282" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B283" t="n">
+        <v>2.492652601496622</v>
+      </c>
+      <c r="C283" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B284" t="n">
+        <v>5.392230176756511</v>
+      </c>
+      <c r="C284" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B285" t="n">
+        <v>9.898701391180047</v>
+      </c>
+      <c r="C285" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B286" t="n">
+        <v>2.795811026663927</v>
+      </c>
+      <c r="C286" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B287" t="n">
+        <v>3.055592201139128</v>
+      </c>
+      <c r="C287" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B288" t="n">
+        <v>6.167282708792603</v>
+      </c>
+      <c r="C288" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B289" t="n">
+        <v>6.137268386896102</v>
+      </c>
+      <c r="C289" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B290" t="n">
+        <v>2.376915867962212</v>
+      </c>
+      <c r="C290" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B291" t="n">
+        <v>3.183906617054566</v>
+      </c>
+      <c r="C291" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B292" t="n">
+        <v>5.948269144537655</v>
+      </c>
+      <c r="C292" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B293" t="n">
+        <v>3.533522307183354</v>
+      </c>
+      <c r="C293" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B294" t="n">
+        <v>1.285038767110162</v>
+      </c>
+      <c r="C294" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B295" t="n">
+        <v>3.317541872445566</v>
+      </c>
+      <c r="C295" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B296" t="n">
+        <v>6.99222204723983</v>
+      </c>
+      <c r="C296" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B297" t="n">
+        <v>4.097203616006865</v>
+      </c>
+      <c r="C297" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B298" t="n">
+        <v>15.6730333048111</v>
+      </c>
+      <c r="C298" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B299" t="n">
+        <v>1.659856601614444</v>
+      </c>
+      <c r="C299" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B300" t="n">
+        <v>2.070740205353453</v>
+      </c>
+      <c r="C300" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B301" t="n">
+        <v>3.748316608684048</v>
+      </c>
+      <c r="C301" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B302" t="n">
+        <v>3.848253792386028</v>
+      </c>
+      <c r="C302" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B303" t="n">
+        <v>2.043984736253188</v>
+      </c>
+      <c r="C303" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B304" t="n">
+        <v>5.236318000813893</v>
+      </c>
+      <c r="C304" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B305" t="n">
+        <v>5.507533508599367</v>
+      </c>
+      <c r="C305" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B306" t="n">
+        <v>7.067297045696181</v>
+      </c>
+      <c r="C306" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B307" t="n">
+        <v>7.6956192629215</v>
+      </c>
+      <c r="C307" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B308" t="n">
+        <v>3.974959173413214</v>
+      </c>
+      <c r="C308" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B309" t="n">
+        <v>2.193879053255568</v>
+      </c>
+      <c r="C309" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B310" t="n">
+        <v>13.42158589502488</v>
+      </c>
+      <c r="C310" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B311" t="n">
+        <v>2.068544452707792</v>
+      </c>
+      <c r="C311" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B312" t="n">
+        <v>8.319423755500251</v>
+      </c>
+      <c r="C312" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B313" t="n">
+        <v>9.993942791297989</v>
+      </c>
+      <c r="C313" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B314" t="n">
+        <v>2.943988276180292</v>
+      </c>
+      <c r="C314" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B315" t="n">
+        <v>3.660317164779668</v>
+      </c>
+      <c r="C315" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B316" t="n">
+        <v>14.00963002244508</v>
+      </c>
+      <c r="C316" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B317" t="n">
+        <v>1.867828548940859</v>
+      </c>
+      <c r="C317" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B318" t="n">
+        <v>6.280295316515177</v>
+      </c>
+      <c r="C318" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B319" t="n">
+        <v>6.213370947217646</v>
+      </c>
+      <c r="C319" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B320" t="n">
+        <v>6.849823199016077</v>
+      </c>
+      <c r="C320" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B321" t="n">
+        <v>4.876839239129302</v>
+      </c>
+      <c r="C321" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B322" t="n">
+        <v>2.367223377021207</v>
+      </c>
+      <c r="C322" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B323" t="n">
+        <v>7.115775745827715</v>
+      </c>
+      <c r="C323" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B324" t="n">
+        <v>3.340182631748155</v>
+      </c>
+      <c r="C324" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B325" t="n">
+        <v>2.042404832533176</v>
+      </c>
+      <c r="C325" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B326" t="n">
+        <v>4.144429597526893</v>
+      </c>
+      <c r="C326" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B327" t="n">
+        <v>3.731571716725143</v>
+      </c>
+      <c r="C327" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B328" t="n">
+        <v>3.054401250694206</v>
+      </c>
+      <c r="C328" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B329" t="n">
+        <v>3.159589665771754</v>
+      </c>
+      <c r="C329" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B330" t="n">
+        <v>4.168410417449711</v>
+      </c>
+      <c r="C330" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B331" t="n">
+        <v>3.890338238390835</v>
+      </c>
+      <c r="C331" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B332" t="n">
+        <v>3.13843802826677</v>
+      </c>
+      <c r="C332" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B333" t="n">
+        <v>8.232454823944041</v>
+      </c>
+      <c r="C333" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B334" t="n">
+        <v>2.655699838832026</v>
+      </c>
+      <c r="C334" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B335" t="n">
+        <v>4.288635477238137</v>
+      </c>
+      <c r="C335" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B336" t="n">
+        <v>2.226897877370037</v>
+      </c>
+      <c r="C336" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B337" t="n">
+        <v>3.133853727647446</v>
+      </c>
+      <c r="C337" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B338" t="n">
+        <v>4.217514116174515</v>
+      </c>
+      <c r="C338" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B339" t="n">
+        <v>4.955348676215385</v>
+      </c>
+      <c r="C339" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B340" t="n">
+        <v>2.662337444348581</v>
+      </c>
+      <c r="C340" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B341" t="n">
+        <v>2.404318666269955</v>
+      </c>
+      <c r="C341" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B342" t="n">
+        <v>3.031826786978727</v>
+      </c>
+      <c r="C342" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B343" t="n">
+        <v>10.4886502142232</v>
+      </c>
+      <c r="C343" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B344" t="n">
+        <v>3.415683293419208</v>
+      </c>
+      <c r="C344" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B345" t="n">
+        <v>9.871414819004327</v>
+      </c>
+      <c r="C345" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B346" t="n">
+        <v>4.357149979905974</v>
+      </c>
+      <c r="C346" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B347" t="n">
+        <v>3.170890234165883</v>
+      </c>
+      <c r="C347" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B348" t="n">
+        <v>1.604580273610243</v>
+      </c>
+      <c r="C348" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B349" t="n">
+        <v>7.223307694668768</v>
+      </c>
+      <c r="C349" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B350" t="n">
+        <v>8.434532224144663</v>
+      </c>
+      <c r="C350" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B351" t="n">
+        <v>4.754457711136595</v>
+      </c>
+      <c r="C351" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B352" t="n">
+        <v>2.99550926942936</v>
+      </c>
+      <c r="C352" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B353" t="n">
+        <v>3.774861099040573</v>
+      </c>
+      <c r="C353" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B354" t="n">
+        <v>4.318371330714649</v>
+      </c>
+      <c r="C354" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B355" t="n">
+        <v>3.867212278846467</v>
+      </c>
+      <c r="C355" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B356" t="n">
+        <v>1.038796187658114</v>
+      </c>
+      <c r="C356" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B357" t="n">
+        <v>3.378041036342693</v>
+      </c>
+      <c r="C357" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B358" t="n">
+        <v>1.355947125180381</v>
+      </c>
+      <c r="C358" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B359" t="n">
+        <v>6.621794635211056</v>
+      </c>
+      <c r="C359" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B360" t="n">
+        <v>4.266806694589685</v>
+      </c>
+      <c r="C360" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B361" t="n">
+        <v>4.046800965294869</v>
+      </c>
+      <c r="C361" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B362" t="n">
+        <v>14.11377818138346</v>
+      </c>
+      <c r="C362" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B363" t="n">
+        <v>2.239770175377771</v>
+      </c>
+      <c r="C363" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B364" t="n">
+        <v>2.671952829021994</v>
+      </c>
+      <c r="C364" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B365" t="n">
+        <v>2.890663698036396</v>
+      </c>
+      <c r="C365" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B366" t="n">
+        <v>2.241295907237081</v>
+      </c>
+      <c r="C366" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B367" t="n">
+        <v>12.73157426538787</v>
+      </c>
+      <c r="C367" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B368" t="n">
+        <v>4.243092081875496</v>
+      </c>
+      <c r="C368" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B369" t="n">
+        <v>5.472897050345546</v>
+      </c>
+      <c r="C369" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B370" t="n">
+        <v>7.75835460097118</v>
+      </c>
+      <c r="C370" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B371" t="n">
+        <v>3.455902513093067</v>
+      </c>
+      <c r="C371" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B372" t="n">
+        <v>14.4178961037181</v>
+      </c>
+      <c r="C372" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B373" t="n">
+        <v>5.253747899696333</v>
+      </c>
+      <c r="C373" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B374" t="n">
+        <v>3.530023017166553</v>
+      </c>
+      <c r="C374" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B375" t="n">
+        <v>11.0582103977331</v>
+      </c>
+      <c r="C375" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B376" t="n">
+        <v>9.177610061441554</v>
+      </c>
+      <c r="C376" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B377" t="n">
+        <v>2.370676955091043</v>
+      </c>
+      <c r="C377" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3">
+      <c r="A378" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B378" t="n">
+        <v>3.584950495942605</v>
+      </c>
+      <c r="C378" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3">
+      <c r="A379" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B379" t="n">
+        <v>3.691383224982647</v>
+      </c>
+      <c r="C379" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3">
+      <c r="A380" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B380" t="n">
+        <v>4.546389022909773</v>
+      </c>
+      <c r="C380" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3">
+      <c r="A381" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B381" t="n">
+        <v>3.883333133322285</v>
+      </c>
+      <c r="C381" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3">
+      <c r="A382" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B382" t="n">
+        <v>1.562382182023949</v>
+      </c>
+      <c r="C382" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3">
+      <c r="A383" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B383" t="n">
+        <v>6.268053244228377</v>
+      </c>
+      <c r="C383" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3">
+      <c r="A384" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B384" t="n">
+        <v>3.260383982615512</v>
+      </c>
+      <c r="C384" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3">
+      <c r="A385" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B385" t="n">
+        <v>7.635310095003443</v>
+      </c>
+      <c r="C385" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3">
+      <c r="A386" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B386" t="n">
+        <v>9.701771682612879</v>
+      </c>
+      <c r="C386" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3">
+      <c r="A387" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B387" t="n">
+        <v>5.527364172556052</v>
+      </c>
+      <c r="C387" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3">
+      <c r="A388" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B388" t="n">
+        <v>6.522785433551988</v>
+      </c>
+      <c r="C388" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3">
+      <c r="A389" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B389" t="n">
+        <v>3.669032698160708</v>
+      </c>
+      <c r="C389" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3">
+      <c r="A390" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B390" t="n">
+        <v>4.395284200156977</v>
+      </c>
+      <c r="C390" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3">
+      <c r="A391" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B391" t="n">
+        <v>3.414921706525593</v>
+      </c>
+      <c r="C391" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3">
+      <c r="A392" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B392" t="n">
+        <v>7.879514378421139</v>
+      </c>
+      <c r="C392" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3">
+      <c r="A393" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B393" t="n">
+        <v>3.199950895788782</v>
+      </c>
+      <c r="C393" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3">
+      <c r="A394" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B394" t="n">
+        <v>5.069651984883858</v>
+      </c>
+      <c r="C394" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3">
+      <c r="A395" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B395" t="n">
+        <v>3.812782467326029</v>
+      </c>
+      <c r="C395" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3">
+      <c r="A396" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B396" t="n">
+        <v>4.103676767021532</v>
+      </c>
+      <c r="C396" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3">
+      <c r="A397" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B397" t="n">
+        <v>5.871696807850513</v>
+      </c>
+      <c r="C397" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3">
+      <c r="A398" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B398" t="n">
+        <v>5.207038543914819</v>
+      </c>
+      <c r="C398" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3">
+      <c r="A399" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B399" t="n">
+        <v>4.585873439194359</v>
+      </c>
+      <c r="C399" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3">
+      <c r="A400" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B400" t="n">
+        <v>2.755306889459668</v>
+      </c>
+      <c r="C400" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3">
+      <c r="A401" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B401" t="n">
+        <v>3.833587121008537</v>
+      </c>
+      <c r="C401" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3">
+      <c r="A402" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B402" t="n">
+        <v>4.329764404201756</v>
+      </c>
+      <c r="C402" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3">
+      <c r="A403" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B403" t="n">
+        <v>5.628876843407153</v>
+      </c>
+      <c r="C403" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3">
+      <c r="A404" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B404" t="n">
+        <v>2.809614164936579</v>
+      </c>
+      <c r="C404" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3">
+      <c r="A405" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B405" t="n">
+        <v>4.074804356660637</v>
+      </c>
+      <c r="C405" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3">
+      <c r="A406" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B406" t="n">
+        <v>5.710071793089428</v>
+      </c>
+      <c r="C406" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3">
+      <c r="A407" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B407" t="n">
+        <v>2.693722549958327</v>
+      </c>
+      <c r="C407" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3">
+      <c r="A408" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B408" t="n">
+        <v>4.667498020245039</v>
+      </c>
+      <c r="C408" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3">
+      <c r="A409" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B409" t="n">
+        <v>2.834176868898694</v>
+      </c>
+      <c r="C409" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3">
+      <c r="A410" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B410" t="n">
+        <v>1.755245025854541</v>
+      </c>
+      <c r="C410" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3">
+      <c r="A411" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B411" t="n">
+        <v>3.122127582755367</v>
+      </c>
+      <c r="C411" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3">
+      <c r="A412" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B412" t="n">
+        <v>4.079719821635071</v>
+      </c>
+      <c r="C412" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3">
+      <c r="A413" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B413" t="n">
+        <v>4.775654167997259</v>
+      </c>
+      <c r="C413" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3">
+      <c r="A414" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B414" t="n">
+        <v>2.798782542587969</v>
+      </c>
+      <c r="C414" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3">
+      <c r="A415" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B415" t="n">
+        <v>4.008610365304154</v>
+      </c>
+      <c r="C415" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
+      <c r="A416" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B416" t="n">
+        <v>1.803766202144018</v>
+      </c>
+      <c r="C416" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3">
+      <c r="A417" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B417" t="n">
+        <v>3.826989661381317</v>
+      </c>
+      <c r="C417" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3">
+      <c r="A418" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B418" t="n">
+        <v>3.785488255084476</v>
+      </c>
+      <c r="C418" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3">
+      <c r="A419" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B419" t="n">
+        <v>3.451829023067488</v>
+      </c>
+      <c r="C419" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3">
+      <c r="A420" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B420" t="n">
+        <v>8.530235689620064</v>
+      </c>
+      <c r="C420" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3">
+      <c r="A421" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B421" t="n">
+        <v>4.712672598371924</v>
+      </c>
+      <c r="C421" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3">
+      <c r="A422" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B422" t="n">
+        <v>7.115439399184061</v>
+      </c>
+      <c r="C422" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3">
+      <c r="A423" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B423" t="n">
+        <v>3.827810022576041</v>
+      </c>
+      <c r="C423" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3">
+      <c r="A424" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B424" t="n">
+        <v>1.559195642830663</v>
+      </c>
+      <c r="C424" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3">
+      <c r="A425" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B425" t="n">
+        <v>1.873927963774396</v>
+      </c>
+      <c r="C425" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3">
+      <c r="A426" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B426" t="n">
+        <v>9.421250955005608</v>
+      </c>
+      <c r="C426" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3">
+      <c r="A427" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B427" t="n">
+        <v>4.576214594115847</v>
+      </c>
+      <c r="C427" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3">
+      <c r="A428" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B428" t="n">
+        <v>4.976231414858013</v>
+      </c>
+      <c r="C428" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3">
+      <c r="A429" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B429" t="n">
+        <v>4.889735903279733</v>
+      </c>
+      <c r="C429" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3">
+      <c r="A430" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B430" t="n">
+        <v>15.72282844477846</v>
+      </c>
+      <c r="C430" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3">
+      <c r="A431" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B431" t="n">
+        <v>2.576117223689352</v>
+      </c>
+      <c r="C431" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3">
+      <c r="A432" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B432" t="n">
+        <v>3.401830636231452</v>
+      </c>
+      <c r="C432" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3">
+      <c r="A433" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B433" t="n">
+        <v>4.833759644860423</v>
+      </c>
+      <c r="C433" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3">
+      <c r="A434" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B434" t="n">
+        <v>4.48477866826471</v>
+      </c>
+      <c r="C434" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3">
+      <c r="A435" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B435" t="n">
+        <v>13.16655016665605</v>
+      </c>
+      <c r="C435" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3">
+      <c r="A436" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B436" t="n">
+        <v>5.995958408875679</v>
+      </c>
+      <c r="C436" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3">
+      <c r="A437" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B437" t="n">
+        <v>5.746442003919062</v>
+      </c>
+      <c r="C437" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3">
+      <c r="A438" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B438" t="n">
+        <v>8.308118432095442</v>
+      </c>
+      <c r="C438" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3">
+      <c r="A439" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B439" t="n">
+        <v>1.264027975219211</v>
+      </c>
+      <c r="C439" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3">
+      <c r="A440" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B440" t="n">
+        <v>3.224354667674369</v>
+      </c>
+      <c r="C440" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3">
+      <c r="A441" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B441" t="n">
+        <v>4.629668720166747</v>
+      </c>
+      <c r="C441" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3">
+      <c r="A442" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B442" t="n">
+        <v>5.870036811353626</v>
+      </c>
+      <c r="C442" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3">
+      <c r="A443" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B443" t="n">
+        <v>2.910575946398843</v>
+      </c>
+      <c r="C443" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3">
+      <c r="A444" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B444" t="n">
+        <v>2.787089783692719</v>
+      </c>
+      <c r="C444" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B445" t="n">
+        <v>2.541569161579748</v>
+      </c>
+      <c r="C445" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3">
+      <c r="A446" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B446" t="n">
+        <v>4.458186546813112</v>
+      </c>
+      <c r="C446" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3">
+      <c r="A447" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B447" t="n">
+        <v>17.39992849878202</v>
+      </c>
+      <c r="C447" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3">
+      <c r="A448" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B448" t="n">
+        <v>18.54003337876334</v>
+      </c>
+      <c r="C448" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3">
+      <c r="A449" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B449" t="n">
+        <v>4.900556411563866</v>
+      </c>
+      <c r="C449" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3">
+      <c r="A450" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B450" t="n">
+        <v>10.05888180122806</v>
+      </c>
+      <c r="C450" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3">
+      <c r="A451" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B451" t="n">
+        <v>3.41105232049431</v>
+      </c>
+      <c r="C451" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3">
+      <c r="A452" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B452" t="n">
+        <v>5.562943111246498</v>
+      </c>
+      <c r="C452" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3">
+      <c r="A453" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B453" t="n">
+        <v>5.585636913274725</v>
+      </c>
+      <c r="C453" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3">
+      <c r="A454" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B454" t="n">
+        <v>6.788794785736283</v>
+      </c>
+      <c r="C454" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3">
+      <c r="A455" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B455" t="n">
+        <v>3.168784980389689</v>
+      </c>
+      <c r="C455" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3">
+      <c r="A456" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B456" t="n">
+        <v>4.42905907538223</v>
+      </c>
+      <c r="C456" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3">
+      <c r="A457" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B457" t="n">
+        <v>3.124013984643262</v>
+      </c>
+      <c r="C457" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3">
+      <c r="A458" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B458" t="n">
+        <v>4.288914411350151</v>
+      </c>
+      <c r="C458" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3">
+      <c r="A459" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B459" t="n">
+        <v>2.634979941199776</v>
+      </c>
+      <c r="C459" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3">
+      <c r="A460" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B460" t="n">
+        <v>6.963957394067653</v>
+      </c>
+      <c r="C460" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3">
+      <c r="A461" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B461" t="n">
+        <v>12.87851249060883</v>
+      </c>
+      <c r="C461" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3">
+      <c r="A462" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B462" t="n">
+        <v>11.84458480549449</v>
+      </c>
+      <c r="C462" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3">
+      <c r="A463" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B463" t="n">
+        <v>2.402770786736158</v>
+      </c>
+      <c r="C463" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3">
+      <c r="A464" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B464" t="n">
+        <v>3.518018204315173</v>
+      </c>
+      <c r="C464" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3">
+      <c r="A465" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B465" t="n">
+        <v>3.036541142345346</v>
+      </c>
+      <c r="C465" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3">
+      <c r="A466" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B466" t="n">
+        <v>15.95982912255508</v>
+      </c>
+      <c r="C466" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3">
+      <c r="A467" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B467" t="n">
+        <v>2.495078823878996</v>
+      </c>
+      <c r="C467" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3">
+      <c r="A468" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B468" t="n">
+        <v>24.6068717234281</v>
+      </c>
+      <c r="C468" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3">
+      <c r="A469" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B469" t="n">
+        <v>4.120164571753294</v>
+      </c>
+      <c r="C469" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3">
+      <c r="A470" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B470" t="n">
+        <v>5.109436410702607</v>
+      </c>
+      <c r="C470" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3">
+      <c r="A471" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B471" t="n">
+        <v>1.956827462055891</v>
+      </c>
+      <c r="C471" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3">
+      <c r="A472" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B472" t="n">
+        <v>6.728433957632947</v>
+      </c>
+      <c r="C472" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3">
+      <c r="A473" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B473" t="n">
+        <v>9.477919385481169</v>
+      </c>
+      <c r="C473" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3">
+      <c r="A474" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B474" t="n">
+        <v>6.983221446824766</v>
+      </c>
+      <c r="C474" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3">
+      <c r="A475" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B475" t="n">
+        <v>1.343885604469159</v>
+      </c>
+      <c r="C475" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3">
+      <c r="A476" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B476" t="n">
+        <v>4.172847996596865</v>
+      </c>
+      <c r="C476" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3">
+      <c r="A477" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B477" t="n">
+        <v>3.845258096681663</v>
+      </c>
+      <c r="C477" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3">
+      <c r="A478" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B478" t="n">
+        <v>4.571525938089218</v>
+      </c>
+      <c r="C478" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3">
+      <c r="A479" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B479" t="n">
+        <v>9.293802078737473</v>
+      </c>
+      <c r="C479" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3">
+      <c r="A480" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B480" t="n">
+        <v>8.709810698273731</v>
+      </c>
+      <c r="C480" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3">
+      <c r="A481" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B481" t="n">
+        <v>3.260199327109749</v>
+      </c>
+      <c r="C481" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3">
+      <c r="A482" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B482" t="n">
+        <v>5.140533651945023</v>
+      </c>
+      <c r="C482" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3">
+      <c r="A483" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B483" t="n">
+        <v>5.220652121712954</v>
+      </c>
+      <c r="C483" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3">
+      <c r="A484" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B484" t="n">
+        <v>3.891671208885211</v>
+      </c>
+      <c r="C484" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3">
+      <c r="A485" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B485" t="n">
+        <v>5.45245725834543</v>
+      </c>
+      <c r="C485" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3">
+      <c r="A486" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B486" t="n">
+        <v>7.933735244994944</v>
+      </c>
+      <c r="C486" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3">
+      <c r="A487" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B487" t="n">
+        <v>6.8934767901928</v>
+      </c>
+      <c r="C487" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3">
+      <c r="A488" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B488" t="n">
+        <v>1.396429067910228</v>
+      </c>
+      <c r="C488" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3">
+      <c r="A489" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B489" t="n">
+        <v>2.562133598428757</v>
+      </c>
+      <c r="C489" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3">
+      <c r="A490" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B490" t="n">
+        <v>3.990779869865194</v>
+      </c>
+      <c r="C490" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3">
+      <c r="A491" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B491" t="n">
+        <v>3.993030494928215</v>
+      </c>
+      <c r="C491" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3">
+      <c r="A492" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B492" t="n">
+        <v>2.449608482978916</v>
+      </c>
+      <c r="C492" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3">
+      <c r="A493" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B493" t="n">
+        <v>8.559551111311222</v>
+      </c>
+      <c r="C493" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3">
+      <c r="A494" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B494" t="n">
+        <v>3.947844988924095</v>
+      </c>
+      <c r="C494" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3">
+      <c r="A495" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B495" t="n">
+        <v>1.987689298739735</v>
+      </c>
+      <c r="C495" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3">
+      <c r="A496" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B496" t="n">
+        <v>9.622294957281564</v>
+      </c>
+      <c r="C496" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3">
+      <c r="A497" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B497" t="n">
+        <v>3.911629547468249</v>
+      </c>
+      <c r="C497" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3">
+      <c r="A498" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B498" t="n">
+        <v>17.06763057932427</v>
+      </c>
+      <c r="C498" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3">
+      <c r="A499" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B499" t="n">
+        <v>3.308819039354753</v>
+      </c>
+      <c r="C499" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3">
+      <c r="A500" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B500" t="n">
+        <v>1.805142132862172</v>
+      </c>
+      <c r="C500" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3">
+      <c r="A501" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B501" t="n">
+        <v>5.010112820991745</v>
+      </c>
+      <c r="C501" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3">
+      <c r="A502" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B502" t="n">
+        <v>3.866877605615974</v>
+      </c>
+      <c r="C502" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3">
+      <c r="A503" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B503" t="n">
+        <v>1.705984692414951</v>
+      </c>
+      <c r="C503" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3">
+      <c r="A504" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B504" t="n">
+        <v>2.194424197997689</v>
+      </c>
+      <c r="C504" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3">
+      <c r="A505" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B505" t="n">
+        <v>9.49113194693436</v>
+      </c>
+      <c r="C505" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3">
+      <c r="A506" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B506" t="n">
+        <v>3.512780136221435</v>
+      </c>
+      <c r="C506" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3">
+      <c r="A507" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B507" t="n">
+        <v>5.540479489107307</v>
+      </c>
+      <c r="C507" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3">
+      <c r="A508" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B508" t="n">
+        <v>5.525254469234273</v>
+      </c>
+      <c r="C508" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3">
+      <c r="A509" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B509" t="n">
+        <v>3.096536497825526</v>
+      </c>
+      <c r="C509" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3">
+      <c r="A510" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B510" t="n">
+        <v>4.158106270254308</v>
+      </c>
+      <c r="C510" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3">
+      <c r="A511" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B511" t="n">
+        <v>5.656529765720618</v>
+      </c>
+      <c r="C511" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3">
+      <c r="A512" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B512" t="n">
+        <v>2.544850481794928</v>
+      </c>
+      <c r="C512" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3">
+      <c r="A513" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B513" t="n">
+        <v>5.500838748374822</v>
+      </c>
+      <c r="C513" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3">
+      <c r="A514" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B514" t="n">
+        <v>5.497094945361542</v>
+      </c>
+      <c r="C514" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3">
+      <c r="A515" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B515" t="n">
+        <v>11.29972709846594</v>
+      </c>
+      <c r="C515" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3">
+      <c r="A516" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B516" t="n">
+        <v>9.770355666617062</v>
+      </c>
+      <c r="C516" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3">
+      <c r="A517" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B517" t="n">
+        <v>5.407862343268779</v>
+      </c>
+      <c r="C517" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3">
+      <c r="A518" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B518" t="n">
+        <v>3.794961833901419</v>
+      </c>
+      <c r="C518" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3">
+      <c r="A519" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B519" t="n">
+        <v>2.738598579541434</v>
+      </c>
+      <c r="C519" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3">
+      <c r="A520" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B520" t="n">
+        <v>4.010775100498899</v>
+      </c>
+      <c r="C520" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3">
+      <c r="A521" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B521" t="n">
+        <v>2.886380385041066</v>
+      </c>
+      <c r="C521" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -408,68 +7719,68 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>523</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.7108076210290726</v>
+        <v>-0.7070178536387168</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>524</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>525</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.489907204806483</v>
+        <v>-1.492456152887566</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>524</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>526</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.932990344866991</v>
+        <v>-1.932829961937532</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>524</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>527</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.70004675861156</v>
+        <v>-1.70235721103562</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>524</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>528</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.5470365951393319</v>
+        <v>-0.5429461739556166</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>524</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>529</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.589770477953798</v>
+        <v>-1.592884569697066</v>
       </c>
       <c r="C7" t="s">
-        <v>3</v>
+        <v>524</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/p__Firmicutes_train.xlsx
+++ b/outputs/p__Firmicutes_train.xlsx
@@ -9,6 +9,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="c__Bacilli-b" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="c__Alicyclobacillia-b" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="c__Bacilli-b-p" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="c__Alicyclobacillia-b-p" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="531">
   <si>
     <t>c__Alicyclobacillia-c__Bacilli</t>
   </si>
@@ -1606,6 +1608,9 @@
   </si>
   <si>
     <t>RS_GCF_000430585.1_0</t>
+  </si>
+  <si>
+    <t>max</t>
   </si>
 </sst>
 </file>
@@ -7786,4 +7791,7428 @@
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D521"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1</v>
+      </c>
+      <c r="D80" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1</v>
+      </c>
+      <c r="D83" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+      <c r="C84" t="n">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1</v>
+      </c>
+      <c r="D85" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1</v>
+      </c>
+      <c r="D86" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1</v>
+      </c>
+      <c r="D88" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+      <c r="C90" t="n">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1</v>
+      </c>
+      <c r="C91" t="n">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+      <c r="C92" t="n">
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1</v>
+      </c>
+      <c r="D93" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1</v>
+      </c>
+      <c r="D94" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1</v>
+      </c>
+      <c r="D95" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1</v>
+      </c>
+      <c r="D99" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1</v>
+      </c>
+      <c r="D101" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+      <c r="C102" t="n">
+        <v>1</v>
+      </c>
+      <c r="D102" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1</v>
+      </c>
+      <c r="C103" t="n">
+        <v>1</v>
+      </c>
+      <c r="D103" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1</v>
+      </c>
+      <c r="D104" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1</v>
+      </c>
+      <c r="C105" t="n">
+        <v>1</v>
+      </c>
+      <c r="D105" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1</v>
+      </c>
+      <c r="C106" t="n">
+        <v>1</v>
+      </c>
+      <c r="D106" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+      <c r="C107" t="n">
+        <v>1</v>
+      </c>
+      <c r="D107" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1</v>
+      </c>
+      <c r="C108" t="n">
+        <v>1</v>
+      </c>
+      <c r="D108" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1</v>
+      </c>
+      <c r="D109" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1</v>
+      </c>
+      <c r="C110" t="n">
+        <v>1</v>
+      </c>
+      <c r="D110" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+      <c r="C111" t="n">
+        <v>1</v>
+      </c>
+      <c r="D111" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1</v>
+      </c>
+      <c r="C112" t="n">
+        <v>1</v>
+      </c>
+      <c r="D112" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1</v>
+      </c>
+      <c r="C113" t="n">
+        <v>1</v>
+      </c>
+      <c r="D113" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1</v>
+      </c>
+      <c r="C114" t="n">
+        <v>1</v>
+      </c>
+      <c r="D114" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1</v>
+      </c>
+      <c r="C115" t="n">
+        <v>1</v>
+      </c>
+      <c r="D115" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+      <c r="C116" t="n">
+        <v>1</v>
+      </c>
+      <c r="D116" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1</v>
+      </c>
+      <c r="C117" t="n">
+        <v>1</v>
+      </c>
+      <c r="D117" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" t="n">
+        <v>1</v>
+      </c>
+      <c r="C118" t="n">
+        <v>1</v>
+      </c>
+      <c r="D118" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119" t="n">
+        <v>1</v>
+      </c>
+      <c r="C119" t="n">
+        <v>1</v>
+      </c>
+      <c r="D119" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120" t="n">
+        <v>1</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1</v>
+      </c>
+      <c r="D120" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1</v>
+      </c>
+      <c r="D121" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122" t="n">
+        <v>1</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1</v>
+      </c>
+      <c r="D122" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B123" t="n">
+        <v>1</v>
+      </c>
+      <c r="C123" t="n">
+        <v>1</v>
+      </c>
+      <c r="D123" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B124" t="n">
+        <v>1</v>
+      </c>
+      <c r="C124" t="n">
+        <v>1</v>
+      </c>
+      <c r="D124" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B125" t="n">
+        <v>1</v>
+      </c>
+      <c r="C125" t="n">
+        <v>1</v>
+      </c>
+      <c r="D125" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1</v>
+      </c>
+      <c r="C126" t="n">
+        <v>1</v>
+      </c>
+      <c r="D126" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1</v>
+      </c>
+      <c r="C127" t="n">
+        <v>1</v>
+      </c>
+      <c r="D127" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1</v>
+      </c>
+      <c r="C128" t="n">
+        <v>1</v>
+      </c>
+      <c r="D128" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1</v>
+      </c>
+      <c r="C129" t="n">
+        <v>1</v>
+      </c>
+      <c r="D129" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B130" t="n">
+        <v>1</v>
+      </c>
+      <c r="C130" t="n">
+        <v>1</v>
+      </c>
+      <c r="D130" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131" t="n">
+        <v>1</v>
+      </c>
+      <c r="C131" t="n">
+        <v>1</v>
+      </c>
+      <c r="D131" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1</v>
+      </c>
+      <c r="C132" t="n">
+        <v>1</v>
+      </c>
+      <c r="D132" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1</v>
+      </c>
+      <c r="C133" t="n">
+        <v>1</v>
+      </c>
+      <c r="D133" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B134" t="n">
+        <v>1</v>
+      </c>
+      <c r="C134" t="n">
+        <v>1</v>
+      </c>
+      <c r="D134" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B135" t="n">
+        <v>1</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1</v>
+      </c>
+      <c r="D135" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B136" t="n">
+        <v>1</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1</v>
+      </c>
+      <c r="D136" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B137" t="n">
+        <v>1</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1</v>
+      </c>
+      <c r="D137" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B138" t="n">
+        <v>1</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1</v>
+      </c>
+      <c r="D138" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B139" t="n">
+        <v>1</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1</v>
+      </c>
+      <c r="D139" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B140" t="n">
+        <v>1</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1</v>
+      </c>
+      <c r="D140" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B141" t="n">
+        <v>1</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1</v>
+      </c>
+      <c r="D141" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B142" t="n">
+        <v>1</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1</v>
+      </c>
+      <c r="D142" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1</v>
+      </c>
+      <c r="D143" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1</v>
+      </c>
+      <c r="D144" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B145" t="n">
+        <v>1</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1</v>
+      </c>
+      <c r="D145" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1</v>
+      </c>
+      <c r="D146" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B147" t="n">
+        <v>1</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1</v>
+      </c>
+      <c r="D147" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B148" t="n">
+        <v>1</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1</v>
+      </c>
+      <c r="D148" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1</v>
+      </c>
+      <c r="D149" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B150" t="n">
+        <v>1</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1</v>
+      </c>
+      <c r="D150" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B151" t="n">
+        <v>1</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1</v>
+      </c>
+      <c r="D151" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1</v>
+      </c>
+      <c r="D152" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1</v>
+      </c>
+      <c r="D153" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B154" t="n">
+        <v>1</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1</v>
+      </c>
+      <c r="D154" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B155" t="n">
+        <v>1</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1</v>
+      </c>
+      <c r="D155" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B156" t="n">
+        <v>1</v>
+      </c>
+      <c r="C156" t="n">
+        <v>1</v>
+      </c>
+      <c r="D156" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1</v>
+      </c>
+      <c r="C157" t="n">
+        <v>1</v>
+      </c>
+      <c r="D157" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1</v>
+      </c>
+      <c r="C158" t="n">
+        <v>1</v>
+      </c>
+      <c r="D158" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1</v>
+      </c>
+      <c r="C159" t="n">
+        <v>1</v>
+      </c>
+      <c r="D159" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B160" t="n">
+        <v>1</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1</v>
+      </c>
+      <c r="D160" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1</v>
+      </c>
+      <c r="D161" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1</v>
+      </c>
+      <c r="D162" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1</v>
+      </c>
+      <c r="D163" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1</v>
+      </c>
+      <c r="D164" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1</v>
+      </c>
+      <c r="D165" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1</v>
+      </c>
+      <c r="D166" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B167" t="n">
+        <v>1</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1</v>
+      </c>
+      <c r="D167" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B168" t="n">
+        <v>1</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1</v>
+      </c>
+      <c r="D168" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B169" t="n">
+        <v>1</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1</v>
+      </c>
+      <c r="D169" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B170" t="n">
+        <v>1</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1</v>
+      </c>
+      <c r="D170" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B171" t="n">
+        <v>1</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1</v>
+      </c>
+      <c r="D171" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B172" t="n">
+        <v>1</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1</v>
+      </c>
+      <c r="D172" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B173" t="n">
+        <v>1</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1</v>
+      </c>
+      <c r="D173" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B174" t="n">
+        <v>1</v>
+      </c>
+      <c r="C174" t="n">
+        <v>1</v>
+      </c>
+      <c r="D174" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1</v>
+      </c>
+      <c r="D175" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1</v>
+      </c>
+      <c r="D176" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1</v>
+      </c>
+      <c r="D177" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1</v>
+      </c>
+      <c r="C178" t="n">
+        <v>1</v>
+      </c>
+      <c r="D178" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1</v>
+      </c>
+      <c r="C179" t="n">
+        <v>1</v>
+      </c>
+      <c r="D179" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1</v>
+      </c>
+      <c r="C180" t="n">
+        <v>1</v>
+      </c>
+      <c r="D180" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B181" t="n">
+        <v>1</v>
+      </c>
+      <c r="C181" t="n">
+        <v>1</v>
+      </c>
+      <c r="D181" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B182" t="n">
+        <v>1</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1</v>
+      </c>
+      <c r="D182" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1</v>
+      </c>
+      <c r="D183" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1</v>
+      </c>
+      <c r="D184" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B185" t="n">
+        <v>1</v>
+      </c>
+      <c r="C185" t="n">
+        <v>1</v>
+      </c>
+      <c r="D185" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1</v>
+      </c>
+      <c r="C186" t="n">
+        <v>1</v>
+      </c>
+      <c r="D186" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B187" t="n">
+        <v>1</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1</v>
+      </c>
+      <c r="D187" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1</v>
+      </c>
+      <c r="D188" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B189" t="n">
+        <v>1</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1</v>
+      </c>
+      <c r="D189" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B190" t="n">
+        <v>1</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1</v>
+      </c>
+      <c r="D190" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B191" t="n">
+        <v>1</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1</v>
+      </c>
+      <c r="D191" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B192" t="n">
+        <v>1</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1</v>
+      </c>
+      <c r="D192" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B193" t="n">
+        <v>1</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1</v>
+      </c>
+      <c r="D193" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B194" t="n">
+        <v>1</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1</v>
+      </c>
+      <c r="D194" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B195" t="n">
+        <v>1</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1</v>
+      </c>
+      <c r="D195" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B196" t="n">
+        <v>1</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1</v>
+      </c>
+      <c r="D196" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B197" t="n">
+        <v>1</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1</v>
+      </c>
+      <c r="D197" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B198" t="n">
+        <v>1</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1</v>
+      </c>
+      <c r="D198" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B199" t="n">
+        <v>1</v>
+      </c>
+      <c r="C199" t="n">
+        <v>1</v>
+      </c>
+      <c r="D199" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B200" t="n">
+        <v>1</v>
+      </c>
+      <c r="C200" t="n">
+        <v>1</v>
+      </c>
+      <c r="D200" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B201" t="n">
+        <v>1</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1</v>
+      </c>
+      <c r="D201" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B202" t="n">
+        <v>1</v>
+      </c>
+      <c r="C202" t="n">
+        <v>1</v>
+      </c>
+      <c r="D202" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B203" t="n">
+        <v>1</v>
+      </c>
+      <c r="C203" t="n">
+        <v>1</v>
+      </c>
+      <c r="D203" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B204" t="n">
+        <v>1</v>
+      </c>
+      <c r="C204" t="n">
+        <v>1</v>
+      </c>
+      <c r="D204" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B205" t="n">
+        <v>1</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1</v>
+      </c>
+      <c r="D205" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B206" t="n">
+        <v>1</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1</v>
+      </c>
+      <c r="D206" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B207" t="n">
+        <v>1</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1</v>
+      </c>
+      <c r="D207" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B208" t="n">
+        <v>1</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1</v>
+      </c>
+      <c r="D208" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B209" t="n">
+        <v>1</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1</v>
+      </c>
+      <c r="D209" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B210" t="n">
+        <v>1</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1</v>
+      </c>
+      <c r="D210" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B211" t="n">
+        <v>1</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1</v>
+      </c>
+      <c r="D211" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B212" t="n">
+        <v>1</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1</v>
+      </c>
+      <c r="D212" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B213" t="n">
+        <v>1</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1</v>
+      </c>
+      <c r="D213" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B214" t="n">
+        <v>1</v>
+      </c>
+      <c r="C214" t="n">
+        <v>1</v>
+      </c>
+      <c r="D214" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B215" t="n">
+        <v>1</v>
+      </c>
+      <c r="C215" t="n">
+        <v>1</v>
+      </c>
+      <c r="D215" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B216" t="n">
+        <v>1</v>
+      </c>
+      <c r="C216" t="n">
+        <v>1</v>
+      </c>
+      <c r="D216" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B217" t="n">
+        <v>1</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1</v>
+      </c>
+      <c r="D217" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B218" t="n">
+        <v>1</v>
+      </c>
+      <c r="C218" t="n">
+        <v>1</v>
+      </c>
+      <c r="D218" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B219" t="n">
+        <v>1</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1</v>
+      </c>
+      <c r="D219" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B220" t="n">
+        <v>1</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1</v>
+      </c>
+      <c r="D220" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B221" t="n">
+        <v>1</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1</v>
+      </c>
+      <c r="D221" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B222" t="n">
+        <v>1</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1</v>
+      </c>
+      <c r="D222" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B223" t="n">
+        <v>1</v>
+      </c>
+      <c r="C223" t="n">
+        <v>1</v>
+      </c>
+      <c r="D223" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B224" t="n">
+        <v>1</v>
+      </c>
+      <c r="C224" t="n">
+        <v>1</v>
+      </c>
+      <c r="D224" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B225" t="n">
+        <v>1</v>
+      </c>
+      <c r="C225" t="n">
+        <v>1</v>
+      </c>
+      <c r="D225" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B226" t="n">
+        <v>1</v>
+      </c>
+      <c r="C226" t="n">
+        <v>1</v>
+      </c>
+      <c r="D226" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B227" t="n">
+        <v>1</v>
+      </c>
+      <c r="C227" t="n">
+        <v>1</v>
+      </c>
+      <c r="D227" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B228" t="n">
+        <v>1</v>
+      </c>
+      <c r="C228" t="n">
+        <v>1</v>
+      </c>
+      <c r="D228" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B229" t="n">
+        <v>1</v>
+      </c>
+      <c r="C229" t="n">
+        <v>1</v>
+      </c>
+      <c r="D229" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B230" t="n">
+        <v>1</v>
+      </c>
+      <c r="C230" t="n">
+        <v>1</v>
+      </c>
+      <c r="D230" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B231" t="n">
+        <v>1</v>
+      </c>
+      <c r="C231" t="n">
+        <v>1</v>
+      </c>
+      <c r="D231" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B232" t="n">
+        <v>1</v>
+      </c>
+      <c r="C232" t="n">
+        <v>1</v>
+      </c>
+      <c r="D232" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B233" t="n">
+        <v>1</v>
+      </c>
+      <c r="C233" t="n">
+        <v>1</v>
+      </c>
+      <c r="D233" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B234" t="n">
+        <v>1</v>
+      </c>
+      <c r="C234" t="n">
+        <v>1</v>
+      </c>
+      <c r="D234" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B235" t="n">
+        <v>1</v>
+      </c>
+      <c r="C235" t="n">
+        <v>1</v>
+      </c>
+      <c r="D235" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B236" t="n">
+        <v>1</v>
+      </c>
+      <c r="C236" t="n">
+        <v>1</v>
+      </c>
+      <c r="D236" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B237" t="n">
+        <v>1</v>
+      </c>
+      <c r="C237" t="n">
+        <v>1</v>
+      </c>
+      <c r="D237" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B238" t="n">
+        <v>1</v>
+      </c>
+      <c r="C238" t="n">
+        <v>1</v>
+      </c>
+      <c r="D238" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B239" t="n">
+        <v>1</v>
+      </c>
+      <c r="C239" t="n">
+        <v>1</v>
+      </c>
+      <c r="D239" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B240" t="n">
+        <v>1</v>
+      </c>
+      <c r="C240" t="n">
+        <v>1</v>
+      </c>
+      <c r="D240" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B241" t="n">
+        <v>1</v>
+      </c>
+      <c r="C241" t="n">
+        <v>1</v>
+      </c>
+      <c r="D241" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B242" t="n">
+        <v>1</v>
+      </c>
+      <c r="C242" t="n">
+        <v>1</v>
+      </c>
+      <c r="D242" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B243" t="n">
+        <v>1</v>
+      </c>
+      <c r="C243" t="n">
+        <v>1</v>
+      </c>
+      <c r="D243" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B244" t="n">
+        <v>1</v>
+      </c>
+      <c r="C244" t="n">
+        <v>1</v>
+      </c>
+      <c r="D244" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B245" t="n">
+        <v>1</v>
+      </c>
+      <c r="C245" t="n">
+        <v>1</v>
+      </c>
+      <c r="D245" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B246" t="n">
+        <v>1</v>
+      </c>
+      <c r="C246" t="n">
+        <v>1</v>
+      </c>
+      <c r="D246" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B247" t="n">
+        <v>1</v>
+      </c>
+      <c r="C247" t="n">
+        <v>1</v>
+      </c>
+      <c r="D247" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B248" t="n">
+        <v>1</v>
+      </c>
+      <c r="C248" t="n">
+        <v>1</v>
+      </c>
+      <c r="D248" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B249" t="n">
+        <v>1</v>
+      </c>
+      <c r="C249" t="n">
+        <v>1</v>
+      </c>
+      <c r="D249" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B250" t="n">
+        <v>1</v>
+      </c>
+      <c r="C250" t="n">
+        <v>1</v>
+      </c>
+      <c r="D250" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B251" t="n">
+        <v>1</v>
+      </c>
+      <c r="C251" t="n">
+        <v>1</v>
+      </c>
+      <c r="D251" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B252" t="n">
+        <v>1</v>
+      </c>
+      <c r="C252" t="n">
+        <v>1</v>
+      </c>
+      <c r="D252" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B253" t="n">
+        <v>1</v>
+      </c>
+      <c r="C253" t="n">
+        <v>1</v>
+      </c>
+      <c r="D253" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B254" t="n">
+        <v>1</v>
+      </c>
+      <c r="C254" t="n">
+        <v>1</v>
+      </c>
+      <c r="D254" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B255" t="n">
+        <v>1</v>
+      </c>
+      <c r="C255" t="n">
+        <v>1</v>
+      </c>
+      <c r="D255" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B256" t="n">
+        <v>1</v>
+      </c>
+      <c r="C256" t="n">
+        <v>1</v>
+      </c>
+      <c r="D256" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B257" t="n">
+        <v>1</v>
+      </c>
+      <c r="C257" t="n">
+        <v>1</v>
+      </c>
+      <c r="D257" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B258" t="n">
+        <v>1</v>
+      </c>
+      <c r="C258" t="n">
+        <v>1</v>
+      </c>
+      <c r="D258" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B259" t="n">
+        <v>1</v>
+      </c>
+      <c r="C259" t="n">
+        <v>1</v>
+      </c>
+      <c r="D259" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B260" t="n">
+        <v>1</v>
+      </c>
+      <c r="C260" t="n">
+        <v>1</v>
+      </c>
+      <c r="D260" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B261" t="n">
+        <v>1</v>
+      </c>
+      <c r="C261" t="n">
+        <v>1</v>
+      </c>
+      <c r="D261" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B262" t="n">
+        <v>1</v>
+      </c>
+      <c r="C262" t="n">
+        <v>1</v>
+      </c>
+      <c r="D262" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B263" t="n">
+        <v>1</v>
+      </c>
+      <c r="C263" t="n">
+        <v>1</v>
+      </c>
+      <c r="D263" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B264" t="n">
+        <v>1</v>
+      </c>
+      <c r="C264" t="n">
+        <v>1</v>
+      </c>
+      <c r="D264" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B265" t="n">
+        <v>1</v>
+      </c>
+      <c r="C265" t="n">
+        <v>1</v>
+      </c>
+      <c r="D265" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B266" t="n">
+        <v>1</v>
+      </c>
+      <c r="C266" t="n">
+        <v>1</v>
+      </c>
+      <c r="D266" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B267" t="n">
+        <v>1</v>
+      </c>
+      <c r="C267" t="n">
+        <v>1</v>
+      </c>
+      <c r="D267" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B268" t="n">
+        <v>1</v>
+      </c>
+      <c r="C268" t="n">
+        <v>1</v>
+      </c>
+      <c r="D268" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B269" t="n">
+        <v>1</v>
+      </c>
+      <c r="C269" t="n">
+        <v>1</v>
+      </c>
+      <c r="D269" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B270" t="n">
+        <v>1</v>
+      </c>
+      <c r="C270" t="n">
+        <v>1</v>
+      </c>
+      <c r="D270" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B271" t="n">
+        <v>1</v>
+      </c>
+      <c r="C271" t="n">
+        <v>1</v>
+      </c>
+      <c r="D271" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B272" t="n">
+        <v>1</v>
+      </c>
+      <c r="C272" t="n">
+        <v>1</v>
+      </c>
+      <c r="D272" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B273" t="n">
+        <v>1</v>
+      </c>
+      <c r="C273" t="n">
+        <v>1</v>
+      </c>
+      <c r="D273" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B274" t="n">
+        <v>1</v>
+      </c>
+      <c r="C274" t="n">
+        <v>1</v>
+      </c>
+      <c r="D274" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B275" t="n">
+        <v>1</v>
+      </c>
+      <c r="C275" t="n">
+        <v>1</v>
+      </c>
+      <c r="D275" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B276" t="n">
+        <v>1</v>
+      </c>
+      <c r="C276" t="n">
+        <v>1</v>
+      </c>
+      <c r="D276" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B277" t="n">
+        <v>1</v>
+      </c>
+      <c r="C277" t="n">
+        <v>1</v>
+      </c>
+      <c r="D277" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B278" t="n">
+        <v>1</v>
+      </c>
+      <c r="C278" t="n">
+        <v>1</v>
+      </c>
+      <c r="D278" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B279" t="n">
+        <v>1</v>
+      </c>
+      <c r="C279" t="n">
+        <v>1</v>
+      </c>
+      <c r="D279" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B280" t="n">
+        <v>1</v>
+      </c>
+      <c r="C280" t="n">
+        <v>1</v>
+      </c>
+      <c r="D280" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B281" t="n">
+        <v>1</v>
+      </c>
+      <c r="C281" t="n">
+        <v>1</v>
+      </c>
+      <c r="D281" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B282" t="n">
+        <v>1</v>
+      </c>
+      <c r="C282" t="n">
+        <v>1</v>
+      </c>
+      <c r="D282" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B283" t="n">
+        <v>1</v>
+      </c>
+      <c r="C283" t="n">
+        <v>1</v>
+      </c>
+      <c r="D283" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B284" t="n">
+        <v>1</v>
+      </c>
+      <c r="C284" t="n">
+        <v>1</v>
+      </c>
+      <c r="D284" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B285" t="n">
+        <v>1</v>
+      </c>
+      <c r="C285" t="n">
+        <v>1</v>
+      </c>
+      <c r="D285" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B286" t="n">
+        <v>1</v>
+      </c>
+      <c r="C286" t="n">
+        <v>1</v>
+      </c>
+      <c r="D286" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B287" t="n">
+        <v>1</v>
+      </c>
+      <c r="C287" t="n">
+        <v>1</v>
+      </c>
+      <c r="D287" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B288" t="n">
+        <v>1</v>
+      </c>
+      <c r="C288" t="n">
+        <v>1</v>
+      </c>
+      <c r="D288" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B289" t="n">
+        <v>1</v>
+      </c>
+      <c r="C289" t="n">
+        <v>1</v>
+      </c>
+      <c r="D289" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B290" t="n">
+        <v>1</v>
+      </c>
+      <c r="C290" t="n">
+        <v>1</v>
+      </c>
+      <c r="D290" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B291" t="n">
+        <v>1</v>
+      </c>
+      <c r="C291" t="n">
+        <v>1</v>
+      </c>
+      <c r="D291" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B292" t="n">
+        <v>1</v>
+      </c>
+      <c r="C292" t="n">
+        <v>1</v>
+      </c>
+      <c r="D292" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B293" t="n">
+        <v>1</v>
+      </c>
+      <c r="C293" t="n">
+        <v>1</v>
+      </c>
+      <c r="D293" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B294" t="n">
+        <v>1</v>
+      </c>
+      <c r="C294" t="n">
+        <v>1</v>
+      </c>
+      <c r="D294" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B295" t="n">
+        <v>1</v>
+      </c>
+      <c r="C295" t="n">
+        <v>1</v>
+      </c>
+      <c r="D295" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B296" t="n">
+        <v>1</v>
+      </c>
+      <c r="C296" t="n">
+        <v>1</v>
+      </c>
+      <c r="D296" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B297" t="n">
+        <v>1</v>
+      </c>
+      <c r="C297" t="n">
+        <v>1</v>
+      </c>
+      <c r="D297" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B298" t="n">
+        <v>1</v>
+      </c>
+      <c r="C298" t="n">
+        <v>1</v>
+      </c>
+      <c r="D298" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B299" t="n">
+        <v>1</v>
+      </c>
+      <c r="C299" t="n">
+        <v>1</v>
+      </c>
+      <c r="D299" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B300" t="n">
+        <v>1</v>
+      </c>
+      <c r="C300" t="n">
+        <v>1</v>
+      </c>
+      <c r="D300" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B301" t="n">
+        <v>1</v>
+      </c>
+      <c r="C301" t="n">
+        <v>1</v>
+      </c>
+      <c r="D301" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B302" t="n">
+        <v>1</v>
+      </c>
+      <c r="C302" t="n">
+        <v>1</v>
+      </c>
+      <c r="D302" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B303" t="n">
+        <v>1</v>
+      </c>
+      <c r="C303" t="n">
+        <v>1</v>
+      </c>
+      <c r="D303" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B304" t="n">
+        <v>1</v>
+      </c>
+      <c r="C304" t="n">
+        <v>1</v>
+      </c>
+      <c r="D304" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B305" t="n">
+        <v>1</v>
+      </c>
+      <c r="C305" t="n">
+        <v>1</v>
+      </c>
+      <c r="D305" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B306" t="n">
+        <v>1</v>
+      </c>
+      <c r="C306" t="n">
+        <v>1</v>
+      </c>
+      <c r="D306" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B307" t="n">
+        <v>1</v>
+      </c>
+      <c r="C307" t="n">
+        <v>1</v>
+      </c>
+      <c r="D307" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="B308" t="n">
+        <v>1</v>
+      </c>
+      <c r="C308" t="n">
+        <v>1</v>
+      </c>
+      <c r="D308" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B309" t="n">
+        <v>1</v>
+      </c>
+      <c r="C309" t="n">
+        <v>1</v>
+      </c>
+      <c r="D309" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B310" t="n">
+        <v>1</v>
+      </c>
+      <c r="C310" t="n">
+        <v>1</v>
+      </c>
+      <c r="D310" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B311" t="n">
+        <v>1</v>
+      </c>
+      <c r="C311" t="n">
+        <v>1</v>
+      </c>
+      <c r="D311" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B312" t="n">
+        <v>1</v>
+      </c>
+      <c r="C312" t="n">
+        <v>1</v>
+      </c>
+      <c r="D312" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B313" t="n">
+        <v>1</v>
+      </c>
+      <c r="C313" t="n">
+        <v>1</v>
+      </c>
+      <c r="D313" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B314" t="n">
+        <v>1</v>
+      </c>
+      <c r="C314" t="n">
+        <v>1</v>
+      </c>
+      <c r="D314" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B315" t="n">
+        <v>1</v>
+      </c>
+      <c r="C315" t="n">
+        <v>1</v>
+      </c>
+      <c r="D315" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B316" t="n">
+        <v>1</v>
+      </c>
+      <c r="C316" t="n">
+        <v>1</v>
+      </c>
+      <c r="D316" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B317" t="n">
+        <v>1</v>
+      </c>
+      <c r="C317" t="n">
+        <v>1</v>
+      </c>
+      <c r="D317" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B318" t="n">
+        <v>1</v>
+      </c>
+      <c r="C318" t="n">
+        <v>1</v>
+      </c>
+      <c r="D318" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B319" t="n">
+        <v>1</v>
+      </c>
+      <c r="C319" t="n">
+        <v>1</v>
+      </c>
+      <c r="D319" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B320" t="n">
+        <v>1</v>
+      </c>
+      <c r="C320" t="n">
+        <v>1</v>
+      </c>
+      <c r="D320" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B321" t="n">
+        <v>1</v>
+      </c>
+      <c r="C321" t="n">
+        <v>1</v>
+      </c>
+      <c r="D321" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B322" t="n">
+        <v>1</v>
+      </c>
+      <c r="C322" t="n">
+        <v>1</v>
+      </c>
+      <c r="D322" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B323" t="n">
+        <v>1</v>
+      </c>
+      <c r="C323" t="n">
+        <v>1</v>
+      </c>
+      <c r="D323" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4">
+      <c r="A324" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B324" t="n">
+        <v>1</v>
+      </c>
+      <c r="C324" t="n">
+        <v>1</v>
+      </c>
+      <c r="D324" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B325" t="n">
+        <v>1</v>
+      </c>
+      <c r="C325" t="n">
+        <v>1</v>
+      </c>
+      <c r="D325" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B326" t="n">
+        <v>1</v>
+      </c>
+      <c r="C326" t="n">
+        <v>1</v>
+      </c>
+      <c r="D326" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B327" t="n">
+        <v>1</v>
+      </c>
+      <c r="C327" t="n">
+        <v>1</v>
+      </c>
+      <c r="D327" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B328" t="n">
+        <v>1</v>
+      </c>
+      <c r="C328" t="n">
+        <v>1</v>
+      </c>
+      <c r="D328" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B329" t="n">
+        <v>1</v>
+      </c>
+      <c r="C329" t="n">
+        <v>1</v>
+      </c>
+      <c r="D329" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B330" t="n">
+        <v>1</v>
+      </c>
+      <c r="C330" t="n">
+        <v>1</v>
+      </c>
+      <c r="D330" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B331" t="n">
+        <v>1</v>
+      </c>
+      <c r="C331" t="n">
+        <v>1</v>
+      </c>
+      <c r="D331" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B332" t="n">
+        <v>1</v>
+      </c>
+      <c r="C332" t="n">
+        <v>1</v>
+      </c>
+      <c r="D332" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B333" t="n">
+        <v>1</v>
+      </c>
+      <c r="C333" t="n">
+        <v>1</v>
+      </c>
+      <c r="D333" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B334" t="n">
+        <v>1</v>
+      </c>
+      <c r="C334" t="n">
+        <v>1</v>
+      </c>
+      <c r="D334" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B335" t="n">
+        <v>1</v>
+      </c>
+      <c r="C335" t="n">
+        <v>1</v>
+      </c>
+      <c r="D335" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B336" t="n">
+        <v>1</v>
+      </c>
+      <c r="C336" t="n">
+        <v>1</v>
+      </c>
+      <c r="D336" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B337" t="n">
+        <v>1</v>
+      </c>
+      <c r="C337" t="n">
+        <v>1</v>
+      </c>
+      <c r="D337" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B338" t="n">
+        <v>1</v>
+      </c>
+      <c r="C338" t="n">
+        <v>1</v>
+      </c>
+      <c r="D338" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B339" t="n">
+        <v>1</v>
+      </c>
+      <c r="C339" t="n">
+        <v>1</v>
+      </c>
+      <c r="D339" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B340" t="n">
+        <v>1</v>
+      </c>
+      <c r="C340" t="n">
+        <v>1</v>
+      </c>
+      <c r="D340" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4">
+      <c r="A341" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B341" t="n">
+        <v>1</v>
+      </c>
+      <c r="C341" t="n">
+        <v>1</v>
+      </c>
+      <c r="D341" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B342" t="n">
+        <v>1</v>
+      </c>
+      <c r="C342" t="n">
+        <v>1</v>
+      </c>
+      <c r="D342" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B343" t="n">
+        <v>1</v>
+      </c>
+      <c r="C343" t="n">
+        <v>1</v>
+      </c>
+      <c r="D343" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B344" t="n">
+        <v>1</v>
+      </c>
+      <c r="C344" t="n">
+        <v>1</v>
+      </c>
+      <c r="D344" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B345" t="n">
+        <v>1</v>
+      </c>
+      <c r="C345" t="n">
+        <v>1</v>
+      </c>
+      <c r="D345" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B346" t="n">
+        <v>1</v>
+      </c>
+      <c r="C346" t="n">
+        <v>1</v>
+      </c>
+      <c r="D346" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B347" t="n">
+        <v>1</v>
+      </c>
+      <c r="C347" t="n">
+        <v>1</v>
+      </c>
+      <c r="D347" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B348" t="n">
+        <v>1</v>
+      </c>
+      <c r="C348" t="n">
+        <v>1</v>
+      </c>
+      <c r="D348" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B349" t="n">
+        <v>1</v>
+      </c>
+      <c r="C349" t="n">
+        <v>1</v>
+      </c>
+      <c r="D349" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B350" t="n">
+        <v>1</v>
+      </c>
+      <c r="C350" t="n">
+        <v>1</v>
+      </c>
+      <c r="D350" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B351" t="n">
+        <v>1</v>
+      </c>
+      <c r="C351" t="n">
+        <v>1</v>
+      </c>
+      <c r="D351" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B352" t="n">
+        <v>1</v>
+      </c>
+      <c r="C352" t="n">
+        <v>1</v>
+      </c>
+      <c r="D352" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B353" t="n">
+        <v>1</v>
+      </c>
+      <c r="C353" t="n">
+        <v>1</v>
+      </c>
+      <c r="D353" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B354" t="n">
+        <v>1</v>
+      </c>
+      <c r="C354" t="n">
+        <v>1</v>
+      </c>
+      <c r="D354" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B355" t="n">
+        <v>1</v>
+      </c>
+      <c r="C355" t="n">
+        <v>1</v>
+      </c>
+      <c r="D355" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B356" t="n">
+        <v>1</v>
+      </c>
+      <c r="C356" t="n">
+        <v>1</v>
+      </c>
+      <c r="D356" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B357" t="n">
+        <v>1</v>
+      </c>
+      <c r="C357" t="n">
+        <v>1</v>
+      </c>
+      <c r="D357" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="358" spans="1:4">
+      <c r="A358" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B358" t="n">
+        <v>1</v>
+      </c>
+      <c r="C358" t="n">
+        <v>1</v>
+      </c>
+      <c r="D358" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B359" t="n">
+        <v>1</v>
+      </c>
+      <c r="C359" t="n">
+        <v>1</v>
+      </c>
+      <c r="D359" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B360" t="n">
+        <v>1</v>
+      </c>
+      <c r="C360" t="n">
+        <v>1</v>
+      </c>
+      <c r="D360" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B361" t="n">
+        <v>1</v>
+      </c>
+      <c r="C361" t="n">
+        <v>1</v>
+      </c>
+      <c r="D361" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B362" t="n">
+        <v>1</v>
+      </c>
+      <c r="C362" t="n">
+        <v>1</v>
+      </c>
+      <c r="D362" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B363" t="n">
+        <v>1</v>
+      </c>
+      <c r="C363" t="n">
+        <v>1</v>
+      </c>
+      <c r="D363" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B364" t="n">
+        <v>1</v>
+      </c>
+      <c r="C364" t="n">
+        <v>1</v>
+      </c>
+      <c r="D364" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B365" t="n">
+        <v>1</v>
+      </c>
+      <c r="C365" t="n">
+        <v>1</v>
+      </c>
+      <c r="D365" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B366" t="n">
+        <v>1</v>
+      </c>
+      <c r="C366" t="n">
+        <v>1</v>
+      </c>
+      <c r="D366" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B367" t="n">
+        <v>1</v>
+      </c>
+      <c r="C367" t="n">
+        <v>1</v>
+      </c>
+      <c r="D367" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B368" t="n">
+        <v>1</v>
+      </c>
+      <c r="C368" t="n">
+        <v>1</v>
+      </c>
+      <c r="D368" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B369" t="n">
+        <v>1</v>
+      </c>
+      <c r="C369" t="n">
+        <v>1</v>
+      </c>
+      <c r="D369" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B370" t="n">
+        <v>1</v>
+      </c>
+      <c r="C370" t="n">
+        <v>1</v>
+      </c>
+      <c r="D370" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B371" t="n">
+        <v>1</v>
+      </c>
+      <c r="C371" t="n">
+        <v>1</v>
+      </c>
+      <c r="D371" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B372" t="n">
+        <v>1</v>
+      </c>
+      <c r="C372" t="n">
+        <v>1</v>
+      </c>
+      <c r="D372" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B373" t="n">
+        <v>1</v>
+      </c>
+      <c r="C373" t="n">
+        <v>1</v>
+      </c>
+      <c r="D373" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B374" t="n">
+        <v>1</v>
+      </c>
+      <c r="C374" t="n">
+        <v>1</v>
+      </c>
+      <c r="D374" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B375" t="n">
+        <v>1</v>
+      </c>
+      <c r="C375" t="n">
+        <v>1</v>
+      </c>
+      <c r="D375" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B376" t="n">
+        <v>1</v>
+      </c>
+      <c r="C376" t="n">
+        <v>1</v>
+      </c>
+      <c r="D376" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B377" t="n">
+        <v>1</v>
+      </c>
+      <c r="C377" t="n">
+        <v>1</v>
+      </c>
+      <c r="D377" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B378" t="n">
+        <v>1</v>
+      </c>
+      <c r="C378" t="n">
+        <v>1</v>
+      </c>
+      <c r="D378" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B379" t="n">
+        <v>1</v>
+      </c>
+      <c r="C379" t="n">
+        <v>1</v>
+      </c>
+      <c r="D379" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B380" t="n">
+        <v>1</v>
+      </c>
+      <c r="C380" t="n">
+        <v>1</v>
+      </c>
+      <c r="D380" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B381" t="n">
+        <v>1</v>
+      </c>
+      <c r="C381" t="n">
+        <v>1</v>
+      </c>
+      <c r="D381" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B382" t="n">
+        <v>1</v>
+      </c>
+      <c r="C382" t="n">
+        <v>1</v>
+      </c>
+      <c r="D382" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B383" t="n">
+        <v>1</v>
+      </c>
+      <c r="C383" t="n">
+        <v>1</v>
+      </c>
+      <c r="D383" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B384" t="n">
+        <v>1</v>
+      </c>
+      <c r="C384" t="n">
+        <v>1</v>
+      </c>
+      <c r="D384" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B385" t="n">
+        <v>1</v>
+      </c>
+      <c r="C385" t="n">
+        <v>1</v>
+      </c>
+      <c r="D385" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B386" t="n">
+        <v>1</v>
+      </c>
+      <c r="C386" t="n">
+        <v>1</v>
+      </c>
+      <c r="D386" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B387" t="n">
+        <v>1</v>
+      </c>
+      <c r="C387" t="n">
+        <v>1</v>
+      </c>
+      <c r="D387" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B388" t="n">
+        <v>1</v>
+      </c>
+      <c r="C388" t="n">
+        <v>1</v>
+      </c>
+      <c r="D388" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B389" t="n">
+        <v>1</v>
+      </c>
+      <c r="C389" t="n">
+        <v>1</v>
+      </c>
+      <c r="D389" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B390" t="n">
+        <v>1</v>
+      </c>
+      <c r="C390" t="n">
+        <v>1</v>
+      </c>
+      <c r="D390" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B391" t="n">
+        <v>1</v>
+      </c>
+      <c r="C391" t="n">
+        <v>1</v>
+      </c>
+      <c r="D391" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="392" spans="1:4">
+      <c r="A392" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B392" t="n">
+        <v>1</v>
+      </c>
+      <c r="C392" t="n">
+        <v>1</v>
+      </c>
+      <c r="D392" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="A393" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B393" t="n">
+        <v>1</v>
+      </c>
+      <c r="C393" t="n">
+        <v>1</v>
+      </c>
+      <c r="D393" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="A394" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B394" t="n">
+        <v>1</v>
+      </c>
+      <c r="C394" t="n">
+        <v>1</v>
+      </c>
+      <c r="D394" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
+      <c r="A395" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B395" t="n">
+        <v>1</v>
+      </c>
+      <c r="C395" t="n">
+        <v>1</v>
+      </c>
+      <c r="D395" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
+      <c r="A396" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B396" t="n">
+        <v>1</v>
+      </c>
+      <c r="C396" t="n">
+        <v>1</v>
+      </c>
+      <c r="D396" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
+      <c r="A397" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B397" t="n">
+        <v>1</v>
+      </c>
+      <c r="C397" t="n">
+        <v>1</v>
+      </c>
+      <c r="D397" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
+      <c r="A398" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B398" t="n">
+        <v>1</v>
+      </c>
+      <c r="C398" t="n">
+        <v>1</v>
+      </c>
+      <c r="D398" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
+      <c r="A399" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B399" t="n">
+        <v>1</v>
+      </c>
+      <c r="C399" t="n">
+        <v>1</v>
+      </c>
+      <c r="D399" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
+      <c r="A400" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B400" t="n">
+        <v>1</v>
+      </c>
+      <c r="C400" t="n">
+        <v>1</v>
+      </c>
+      <c r="D400" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
+      <c r="A401" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B401" t="n">
+        <v>1</v>
+      </c>
+      <c r="C401" t="n">
+        <v>1</v>
+      </c>
+      <c r="D401" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
+      <c r="A402" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B402" t="n">
+        <v>1</v>
+      </c>
+      <c r="C402" t="n">
+        <v>1</v>
+      </c>
+      <c r="D402" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
+      <c r="A403" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B403" t="n">
+        <v>1</v>
+      </c>
+      <c r="C403" t="n">
+        <v>1</v>
+      </c>
+      <c r="D403" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4">
+      <c r="A404" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B404" t="n">
+        <v>1</v>
+      </c>
+      <c r="C404" t="n">
+        <v>1</v>
+      </c>
+      <c r="D404" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
+      <c r="A405" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B405" t="n">
+        <v>1</v>
+      </c>
+      <c r="C405" t="n">
+        <v>1</v>
+      </c>
+      <c r="D405" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
+      <c r="A406" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B406" t="n">
+        <v>1</v>
+      </c>
+      <c r="C406" t="n">
+        <v>1</v>
+      </c>
+      <c r="D406" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4">
+      <c r="A407" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B407" t="n">
+        <v>1</v>
+      </c>
+      <c r="C407" t="n">
+        <v>1</v>
+      </c>
+      <c r="D407" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="A408" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B408" t="n">
+        <v>1</v>
+      </c>
+      <c r="C408" t="n">
+        <v>1</v>
+      </c>
+      <c r="D408" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="409" spans="1:4">
+      <c r="A409" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B409" t="n">
+        <v>1</v>
+      </c>
+      <c r="C409" t="n">
+        <v>1</v>
+      </c>
+      <c r="D409" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="A410" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B410" t="n">
+        <v>1</v>
+      </c>
+      <c r="C410" t="n">
+        <v>1</v>
+      </c>
+      <c r="D410" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="A411" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B411" t="n">
+        <v>1</v>
+      </c>
+      <c r="C411" t="n">
+        <v>1</v>
+      </c>
+      <c r="D411" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="A412" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B412" t="n">
+        <v>1</v>
+      </c>
+      <c r="C412" t="n">
+        <v>1</v>
+      </c>
+      <c r="D412" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="A413" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B413" t="n">
+        <v>1</v>
+      </c>
+      <c r="C413" t="n">
+        <v>1</v>
+      </c>
+      <c r="D413" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="A414" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B414" t="n">
+        <v>1</v>
+      </c>
+      <c r="C414" t="n">
+        <v>1</v>
+      </c>
+      <c r="D414" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="A415" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B415" t="n">
+        <v>1</v>
+      </c>
+      <c r="C415" t="n">
+        <v>1</v>
+      </c>
+      <c r="D415" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B416" t="n">
+        <v>1</v>
+      </c>
+      <c r="C416" t="n">
+        <v>1</v>
+      </c>
+      <c r="D416" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B417" t="n">
+        <v>1</v>
+      </c>
+      <c r="C417" t="n">
+        <v>1</v>
+      </c>
+      <c r="D417" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B418" t="n">
+        <v>1</v>
+      </c>
+      <c r="C418" t="n">
+        <v>1</v>
+      </c>
+      <c r="D418" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="A419" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B419" t="n">
+        <v>1</v>
+      </c>
+      <c r="C419" t="n">
+        <v>1</v>
+      </c>
+      <c r="D419" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B420" t="n">
+        <v>1</v>
+      </c>
+      <c r="C420" t="n">
+        <v>1</v>
+      </c>
+      <c r="D420" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B421" t="n">
+        <v>1</v>
+      </c>
+      <c r="C421" t="n">
+        <v>1</v>
+      </c>
+      <c r="D421" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B422" t="n">
+        <v>1</v>
+      </c>
+      <c r="C422" t="n">
+        <v>1</v>
+      </c>
+      <c r="D422" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
+      <c r="A423" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B423" t="n">
+        <v>1</v>
+      </c>
+      <c r="C423" t="n">
+        <v>1</v>
+      </c>
+      <c r="D423" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B424" t="n">
+        <v>1</v>
+      </c>
+      <c r="C424" t="n">
+        <v>1</v>
+      </c>
+      <c r="D424" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B425" t="n">
+        <v>1</v>
+      </c>
+      <c r="C425" t="n">
+        <v>1</v>
+      </c>
+      <c r="D425" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="426" spans="1:4">
+      <c r="A426" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B426" t="n">
+        <v>1</v>
+      </c>
+      <c r="C426" t="n">
+        <v>1</v>
+      </c>
+      <c r="D426" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
+      <c r="A427" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B427" t="n">
+        <v>1</v>
+      </c>
+      <c r="C427" t="n">
+        <v>1</v>
+      </c>
+      <c r="D427" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
+      <c r="A428" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B428" t="n">
+        <v>1</v>
+      </c>
+      <c r="C428" t="n">
+        <v>1</v>
+      </c>
+      <c r="D428" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
+      <c r="A429" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B429" t="n">
+        <v>1</v>
+      </c>
+      <c r="C429" t="n">
+        <v>1</v>
+      </c>
+      <c r="D429" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
+      <c r="A430" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B430" t="n">
+        <v>1</v>
+      </c>
+      <c r="C430" t="n">
+        <v>1</v>
+      </c>
+      <c r="D430" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
+      <c r="A431" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B431" t="n">
+        <v>1</v>
+      </c>
+      <c r="C431" t="n">
+        <v>1</v>
+      </c>
+      <c r="D431" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
+      <c r="A432" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B432" t="n">
+        <v>1</v>
+      </c>
+      <c r="C432" t="n">
+        <v>1</v>
+      </c>
+      <c r="D432" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
+      <c r="A433" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B433" t="n">
+        <v>1</v>
+      </c>
+      <c r="C433" t="n">
+        <v>1</v>
+      </c>
+      <c r="D433" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="A434" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B434" t="n">
+        <v>1</v>
+      </c>
+      <c r="C434" t="n">
+        <v>1</v>
+      </c>
+      <c r="D434" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
+      <c r="A435" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B435" t="n">
+        <v>1</v>
+      </c>
+      <c r="C435" t="n">
+        <v>1</v>
+      </c>
+      <c r="D435" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
+      <c r="A436" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B436" t="n">
+        <v>1</v>
+      </c>
+      <c r="C436" t="n">
+        <v>1</v>
+      </c>
+      <c r="D436" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
+      <c r="A437" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B437" t="n">
+        <v>1</v>
+      </c>
+      <c r="C437" t="n">
+        <v>1</v>
+      </c>
+      <c r="D437" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="A438" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B438" t="n">
+        <v>1</v>
+      </c>
+      <c r="C438" t="n">
+        <v>1</v>
+      </c>
+      <c r="D438" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="A439" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B439" t="n">
+        <v>1</v>
+      </c>
+      <c r="C439" t="n">
+        <v>1</v>
+      </c>
+      <c r="D439" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="A440" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B440" t="n">
+        <v>1</v>
+      </c>
+      <c r="C440" t="n">
+        <v>1</v>
+      </c>
+      <c r="D440" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4">
+      <c r="A441" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B441" t="n">
+        <v>1</v>
+      </c>
+      <c r="C441" t="n">
+        <v>1</v>
+      </c>
+      <c r="D441" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B442" t="n">
+        <v>1</v>
+      </c>
+      <c r="C442" t="n">
+        <v>1</v>
+      </c>
+      <c r="D442" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4">
+      <c r="A443" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B443" t="n">
+        <v>1</v>
+      </c>
+      <c r="C443" t="n">
+        <v>1</v>
+      </c>
+      <c r="D443" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
+      <c r="A444" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B444" t="n">
+        <v>1</v>
+      </c>
+      <c r="C444" t="n">
+        <v>1</v>
+      </c>
+      <c r="D444" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4">
+      <c r="A445" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B445" t="n">
+        <v>1</v>
+      </c>
+      <c r="C445" t="n">
+        <v>1</v>
+      </c>
+      <c r="D445" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
+      <c r="A446" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B446" t="n">
+        <v>1</v>
+      </c>
+      <c r="C446" t="n">
+        <v>1</v>
+      </c>
+      <c r="D446" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
+      <c r="A447" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B447" t="n">
+        <v>1</v>
+      </c>
+      <c r="C447" t="n">
+        <v>1</v>
+      </c>
+      <c r="D447" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4">
+      <c r="A448" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B448" t="n">
+        <v>1</v>
+      </c>
+      <c r="C448" t="n">
+        <v>1</v>
+      </c>
+      <c r="D448" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4">
+      <c r="A449" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B449" t="n">
+        <v>1</v>
+      </c>
+      <c r="C449" t="n">
+        <v>1</v>
+      </c>
+      <c r="D449" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4">
+      <c r="A450" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B450" t="n">
+        <v>1</v>
+      </c>
+      <c r="C450" t="n">
+        <v>1</v>
+      </c>
+      <c r="D450" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4">
+      <c r="A451" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B451" t="n">
+        <v>1</v>
+      </c>
+      <c r="C451" t="n">
+        <v>1</v>
+      </c>
+      <c r="D451" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4">
+      <c r="A452" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B452" t="n">
+        <v>1</v>
+      </c>
+      <c r="C452" t="n">
+        <v>1</v>
+      </c>
+      <c r="D452" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4">
+      <c r="A453" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="B453" t="n">
+        <v>1</v>
+      </c>
+      <c r="C453" t="n">
+        <v>1</v>
+      </c>
+      <c r="D453" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4">
+      <c r="A454" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B454" t="n">
+        <v>1</v>
+      </c>
+      <c r="C454" t="n">
+        <v>1</v>
+      </c>
+      <c r="D454" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
+      <c r="A455" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="B455" t="n">
+        <v>1</v>
+      </c>
+      <c r="C455" t="n">
+        <v>1</v>
+      </c>
+      <c r="D455" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4">
+      <c r="A456" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B456" t="n">
+        <v>1</v>
+      </c>
+      <c r="C456" t="n">
+        <v>1</v>
+      </c>
+      <c r="D456" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4">
+      <c r="A457" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B457" t="n">
+        <v>1</v>
+      </c>
+      <c r="C457" t="n">
+        <v>1</v>
+      </c>
+      <c r="D457" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4">
+      <c r="A458" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B458" t="n">
+        <v>1</v>
+      </c>
+      <c r="C458" t="n">
+        <v>1</v>
+      </c>
+      <c r="D458" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4">
+      <c r="A459" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B459" t="n">
+        <v>1</v>
+      </c>
+      <c r="C459" t="n">
+        <v>1</v>
+      </c>
+      <c r="D459" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="460" spans="1:4">
+      <c r="A460" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B460" t="n">
+        <v>1</v>
+      </c>
+      <c r="C460" t="n">
+        <v>1</v>
+      </c>
+      <c r="D460" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4">
+      <c r="A461" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B461" t="n">
+        <v>1</v>
+      </c>
+      <c r="C461" t="n">
+        <v>1</v>
+      </c>
+      <c r="D461" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4">
+      <c r="A462" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B462" t="n">
+        <v>1</v>
+      </c>
+      <c r="C462" t="n">
+        <v>1</v>
+      </c>
+      <c r="D462" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4">
+      <c r="A463" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="B463" t="n">
+        <v>1</v>
+      </c>
+      <c r="C463" t="n">
+        <v>1</v>
+      </c>
+      <c r="D463" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4">
+      <c r="A464" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B464" t="n">
+        <v>1</v>
+      </c>
+      <c r="C464" t="n">
+        <v>1</v>
+      </c>
+      <c r="D464" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4">
+      <c r="A465" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B465" t="n">
+        <v>1</v>
+      </c>
+      <c r="C465" t="n">
+        <v>1</v>
+      </c>
+      <c r="D465" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4">
+      <c r="A466" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B466" t="n">
+        <v>1</v>
+      </c>
+      <c r="C466" t="n">
+        <v>1</v>
+      </c>
+      <c r="D466" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4">
+      <c r="A467" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B467" t="n">
+        <v>1</v>
+      </c>
+      <c r="C467" t="n">
+        <v>1</v>
+      </c>
+      <c r="D467" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4">
+      <c r="A468" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B468" t="n">
+        <v>1</v>
+      </c>
+      <c r="C468" t="n">
+        <v>1</v>
+      </c>
+      <c r="D468" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4">
+      <c r="A469" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B469" t="n">
+        <v>1</v>
+      </c>
+      <c r="C469" t="n">
+        <v>1</v>
+      </c>
+      <c r="D469" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4">
+      <c r="A470" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B470" t="n">
+        <v>1</v>
+      </c>
+      <c r="C470" t="n">
+        <v>1</v>
+      </c>
+      <c r="D470" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4">
+      <c r="A471" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B471" t="n">
+        <v>1</v>
+      </c>
+      <c r="C471" t="n">
+        <v>1</v>
+      </c>
+      <c r="D471" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4">
+      <c r="A472" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B472" t="n">
+        <v>1</v>
+      </c>
+      <c r="C472" t="n">
+        <v>1</v>
+      </c>
+      <c r="D472" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4">
+      <c r="A473" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B473" t="n">
+        <v>1</v>
+      </c>
+      <c r="C473" t="n">
+        <v>1</v>
+      </c>
+      <c r="D473" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4">
+      <c r="A474" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B474" t="n">
+        <v>1</v>
+      </c>
+      <c r="C474" t="n">
+        <v>1</v>
+      </c>
+      <c r="D474" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4">
+      <c r="A475" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="B475" t="n">
+        <v>1</v>
+      </c>
+      <c r="C475" t="n">
+        <v>1</v>
+      </c>
+      <c r="D475" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4">
+      <c r="A476" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B476" t="n">
+        <v>1</v>
+      </c>
+      <c r="C476" t="n">
+        <v>1</v>
+      </c>
+      <c r="D476" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="477" spans="1:4">
+      <c r="A477" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="B477" t="n">
+        <v>1</v>
+      </c>
+      <c r="C477" t="n">
+        <v>1</v>
+      </c>
+      <c r="D477" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4">
+      <c r="A478" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B478" t="n">
+        <v>1</v>
+      </c>
+      <c r="C478" t="n">
+        <v>1</v>
+      </c>
+      <c r="D478" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4">
+      <c r="A479" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="B479" t="n">
+        <v>1</v>
+      </c>
+      <c r="C479" t="n">
+        <v>1</v>
+      </c>
+      <c r="D479" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4">
+      <c r="A480" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B480" t="n">
+        <v>1</v>
+      </c>
+      <c r="C480" t="n">
+        <v>1</v>
+      </c>
+      <c r="D480" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4">
+      <c r="A481" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="B481" t="n">
+        <v>1</v>
+      </c>
+      <c r="C481" t="n">
+        <v>1</v>
+      </c>
+      <c r="D481" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4">
+      <c r="A482" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B482" t="n">
+        <v>1</v>
+      </c>
+      <c r="C482" t="n">
+        <v>1</v>
+      </c>
+      <c r="D482" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4">
+      <c r="A483" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="B483" t="n">
+        <v>1</v>
+      </c>
+      <c r="C483" t="n">
+        <v>1</v>
+      </c>
+      <c r="D483" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4">
+      <c r="A484" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B484" t="n">
+        <v>1</v>
+      </c>
+      <c r="C484" t="n">
+        <v>1</v>
+      </c>
+      <c r="D484" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4">
+      <c r="A485" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="B485" t="n">
+        <v>1</v>
+      </c>
+      <c r="C485" t="n">
+        <v>1</v>
+      </c>
+      <c r="D485" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4">
+      <c r="A486" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B486" t="n">
+        <v>1</v>
+      </c>
+      <c r="C486" t="n">
+        <v>1</v>
+      </c>
+      <c r="D486" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4">
+      <c r="A487" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B487" t="n">
+        <v>1</v>
+      </c>
+      <c r="C487" t="n">
+        <v>1</v>
+      </c>
+      <c r="D487" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4">
+      <c r="A488" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B488" t="n">
+        <v>1</v>
+      </c>
+      <c r="C488" t="n">
+        <v>1</v>
+      </c>
+      <c r="D488" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4">
+      <c r="A489" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="B489" t="n">
+        <v>1</v>
+      </c>
+      <c r="C489" t="n">
+        <v>1</v>
+      </c>
+      <c r="D489" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4">
+      <c r="A490" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B490" t="n">
+        <v>1</v>
+      </c>
+      <c r="C490" t="n">
+        <v>1</v>
+      </c>
+      <c r="D490" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4">
+      <c r="A491" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="B491" t="n">
+        <v>1</v>
+      </c>
+      <c r="C491" t="n">
+        <v>1</v>
+      </c>
+      <c r="D491" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4">
+      <c r="A492" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B492" t="n">
+        <v>1</v>
+      </c>
+      <c r="C492" t="n">
+        <v>1</v>
+      </c>
+      <c r="D492" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4">
+      <c r="A493" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="B493" t="n">
+        <v>1</v>
+      </c>
+      <c r="C493" t="n">
+        <v>1</v>
+      </c>
+      <c r="D493" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="494" spans="1:4">
+      <c r="A494" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B494" t="n">
+        <v>1</v>
+      </c>
+      <c r="C494" t="n">
+        <v>1</v>
+      </c>
+      <c r="D494" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4">
+      <c r="A495" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="B495" t="n">
+        <v>1</v>
+      </c>
+      <c r="C495" t="n">
+        <v>1</v>
+      </c>
+      <c r="D495" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4">
+      <c r="A496" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B496" t="n">
+        <v>1</v>
+      </c>
+      <c r="C496" t="n">
+        <v>1</v>
+      </c>
+      <c r="D496" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4">
+      <c r="A497" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="B497" t="n">
+        <v>1</v>
+      </c>
+      <c r="C497" t="n">
+        <v>1</v>
+      </c>
+      <c r="D497" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4">
+      <c r="A498" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B498" t="n">
+        <v>1</v>
+      </c>
+      <c r="C498" t="n">
+        <v>1</v>
+      </c>
+      <c r="D498" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4">
+      <c r="A499" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B499" t="n">
+        <v>1</v>
+      </c>
+      <c r="C499" t="n">
+        <v>1</v>
+      </c>
+      <c r="D499" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4">
+      <c r="A500" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B500" t="n">
+        <v>1</v>
+      </c>
+      <c r="C500" t="n">
+        <v>1</v>
+      </c>
+      <c r="D500" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4">
+      <c r="A501" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B501" t="n">
+        <v>1</v>
+      </c>
+      <c r="C501" t="n">
+        <v>1</v>
+      </c>
+      <c r="D501" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4">
+      <c r="A502" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B502" t="n">
+        <v>1</v>
+      </c>
+      <c r="C502" t="n">
+        <v>1</v>
+      </c>
+      <c r="D502" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4">
+      <c r="A503" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B503" t="n">
+        <v>1</v>
+      </c>
+      <c r="C503" t="n">
+        <v>1</v>
+      </c>
+      <c r="D503" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4">
+      <c r="A504" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B504" t="n">
+        <v>1</v>
+      </c>
+      <c r="C504" t="n">
+        <v>1</v>
+      </c>
+      <c r="D504" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4">
+      <c r="A505" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="B505" t="n">
+        <v>1</v>
+      </c>
+      <c r="C505" t="n">
+        <v>1</v>
+      </c>
+      <c r="D505" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4">
+      <c r="A506" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B506" t="n">
+        <v>1</v>
+      </c>
+      <c r="C506" t="n">
+        <v>1</v>
+      </c>
+      <c r="D506" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4">
+      <c r="A507" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="B507" t="n">
+        <v>1</v>
+      </c>
+      <c r="C507" t="n">
+        <v>1</v>
+      </c>
+      <c r="D507" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4">
+      <c r="A508" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B508" t="n">
+        <v>1</v>
+      </c>
+      <c r="C508" t="n">
+        <v>1</v>
+      </c>
+      <c r="D508" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4">
+      <c r="A509" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="B509" t="n">
+        <v>1</v>
+      </c>
+      <c r="C509" t="n">
+        <v>1</v>
+      </c>
+      <c r="D509" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4">
+      <c r="A510" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B510" t="n">
+        <v>1</v>
+      </c>
+      <c r="C510" t="n">
+        <v>1</v>
+      </c>
+      <c r="D510" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="511" spans="1:4">
+      <c r="A511" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B511" t="n">
+        <v>1</v>
+      </c>
+      <c r="C511" t="n">
+        <v>1</v>
+      </c>
+      <c r="D511" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4">
+      <c r="A512" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B512" t="n">
+        <v>1</v>
+      </c>
+      <c r="C512" t="n">
+        <v>1</v>
+      </c>
+      <c r="D512" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4">
+      <c r="A513" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B513" t="n">
+        <v>1</v>
+      </c>
+      <c r="C513" t="n">
+        <v>1</v>
+      </c>
+      <c r="D513" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4">
+      <c r="A514" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B514" t="n">
+        <v>1</v>
+      </c>
+      <c r="C514" t="n">
+        <v>1</v>
+      </c>
+      <c r="D514" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4">
+      <c r="A515" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="B515" t="n">
+        <v>1</v>
+      </c>
+      <c r="C515" t="n">
+        <v>1</v>
+      </c>
+      <c r="D515" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4">
+      <c r="A516" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B516" t="n">
+        <v>1</v>
+      </c>
+      <c r="C516" t="n">
+        <v>1</v>
+      </c>
+      <c r="D516" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4">
+      <c r="A517" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="B517" t="n">
+        <v>1</v>
+      </c>
+      <c r="C517" t="n">
+        <v>1</v>
+      </c>
+      <c r="D517" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4">
+      <c r="A518" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B518" t="n">
+        <v>1</v>
+      </c>
+      <c r="C518" t="n">
+        <v>1</v>
+      </c>
+      <c r="D518" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4">
+      <c r="A519" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="B519" t="n">
+        <v>1</v>
+      </c>
+      <c r="C519" t="n">
+        <v>1</v>
+      </c>
+      <c r="D519" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4">
+      <c r="A520" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B520" t="n">
+        <v>1</v>
+      </c>
+      <c r="C520" t="n">
+        <v>1</v>
+      </c>
+      <c r="D520" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4">
+      <c r="A521" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="B521" t="n">
+        <v>1</v>
+      </c>
+      <c r="C521" t="n">
+        <v>1</v>
+      </c>
+      <c r="D521" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>524</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
 </file>
--- a/outputs/p__Firmicutes_train.xlsx
+++ b/outputs/p__Firmicutes_train.xlsx
@@ -10,6 +10,7 @@
     <sheet name="c__Alicyclobacillia-b" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="c__Bacilli-b-p" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="c__Alicyclobacillia-b-p" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="c__Alicyclobacillia-b1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -19534,4 +19535,148 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>c__Alicyclobacillia-c__Bacilli</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>prediction</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>RS_GCF_001516615.1_0</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.7070178536387168</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.7070178536387168</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>c__Alicyclobacillia</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>RS_GCF_001570745.1_0</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-1.492456152887566</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-1.492456152887566</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>c__Alicyclobacillia</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="inlineStr">
+        <is>
+          <t>RS_GCF_900156755.1_0</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-1.932829961937532</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-1.932829961937532</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>c__Alicyclobacillia</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="inlineStr">
+        <is>
+          <t>RS_GCF_000444055.1_0</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-1.70235721103562</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-1.70235721103562</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>c__Alicyclobacillia</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>RS_GCF_000714935.1_0</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.5429461739556166</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.5429461739556166</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>c__Alicyclobacillia</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="inlineStr">
+        <is>
+          <t>RS_GCF_000430585.1_0</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-1.592884569697066</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-1.592884569697066</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>c__Alicyclobacillia</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>